--- a/output/download-data/iTRAQI - ASGS 2016 SA2.xlsx
+++ b/output/download-data/iTRAQI - ASGS 2016 SA2.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3208" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3208" uniqueCount="583">
   <si>
     <t>Suggested citation</t>
   </si>
@@ -1742,9 +1742,6 @@
   </si>
   <si>
     <t>5C</t>
-  </si>
-  <si>
-    <t>6C</t>
   </si>
   <si>
     <t>5B</t>
@@ -8082,7 +8079,7 @@
         <v>444.01763271334164</v>
       </c>
       <c r="H210" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="211">
@@ -8134,7 +8131,7 @@
         <v>428.7984201950769</v>
       </c>
       <c r="H212" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="213">
@@ -15492,7 +15489,7 @@
         <v>219.9791800316649</v>
       </c>
       <c r="H495" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="496">
@@ -15518,7 +15515,7 @@
         <v>228.1325598817241</v>
       </c>
       <c r="H496" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="497">
@@ -15544,7 +15541,7 @@
         <v>219.57642642166468</v>
       </c>
       <c r="H497" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="498">
@@ -15570,7 +15567,7 @@
         <v>219.4795388517972</v>
       </c>
       <c r="H498" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="499">
@@ -15596,7 +15593,7 @@
         <v>223.3136102182658</v>
       </c>
       <c r="H499" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="500">
@@ -15622,7 +15619,7 @@
         <v>228.74127917501812</v>
       </c>
       <c r="H500" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="501">
@@ -15648,7 +15645,7 @@
         <v>264.5797275636006</v>
       </c>
       <c r="H501" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="502">
@@ -15674,7 +15671,7 @@
         <v>221.76742696812016</v>
       </c>
       <c r="H502" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="503">
@@ -15700,7 +15697,7 @@
         <v>220.4146650663588</v>
       </c>
       <c r="H503" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="504">
@@ -15726,7 +15723,7 @@
         <v>218.39041627616848</v>
       </c>
       <c r="H504" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="505">
@@ -15752,7 +15749,7 @@
         <v>218.19350125299377</v>
       </c>
       <c r="H505" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="506">
@@ -16298,7 +16295,7 @@
         <v>149.71120207015292</v>
       </c>
       <c r="H526" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="527">
@@ -16324,7 +16321,7 @@
         <v>153.2220122682496</v>
       </c>
       <c r="H527" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="528">
@@ -16376,7 +16373,7 @@
         <v>150.2985180817759</v>
       </c>
       <c r="H529" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -16397,19 +16394,19 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C1" t="s">
         <v>570</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>571</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>572</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>573</v>
-      </c>
-      <c r="F1" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="2">
@@ -16417,7 +16414,7 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C2" t="n">
         <v>250.0</v>
@@ -16437,7 +16434,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C3" t="n">
         <v>468.0</v>
@@ -16457,7 +16454,7 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C4" t="n">
         <v>360.0</v>
@@ -16477,7 +16474,7 @@
         <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C5" t="n">
         <v>255.0</v>
@@ -16497,7 +16494,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C6" t="n">
         <v>238.0</v>
@@ -16517,7 +16514,7 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C7" t="n">
         <v>420.0</v>
@@ -16537,7 +16534,7 @@
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C8" t="n">
         <v>297.0</v>
@@ -16557,7 +16554,7 @@
         <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C9" t="n">
         <v>435.0</v>
@@ -16577,7 +16574,7 @@
         <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C10" t="n">
         <v>355.0</v>
@@ -16597,7 +16594,7 @@
         <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C11" t="n">
         <v>462.0</v>
@@ -16617,7 +16614,7 @@
         <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C12" t="n">
         <v>434.0</v>
@@ -16637,7 +16634,7 @@
         <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C13" t="n">
         <v>288.0</v>
@@ -16657,7 +16654,7 @@
         <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C14" t="n">
         <v>24.0</v>
@@ -16677,7 +16674,7 @@
         <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -16689,7 +16686,7 @@
         <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C16" t="n">
         <v>395.0</v>
@@ -16709,7 +16706,7 @@
         <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C17" t="n">
         <v>368.0</v>
@@ -16729,7 +16726,7 @@
         <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C18" t="n">
         <v>430.0</v>
@@ -16749,7 +16746,7 @@
         <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C19" t="n">
         <v>342.0</v>
@@ -16769,7 +16766,7 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C20" t="n">
         <v>503.0</v>
@@ -16789,7 +16786,7 @@
         <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C21" t="n">
         <v>325.0</v>
@@ -16809,7 +16806,7 @@
         <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C22" t="n">
         <v>243.0</v>
@@ -16829,7 +16826,7 @@
         <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C23" t="n">
         <v>312.0</v>
@@ -16849,7 +16846,7 @@
         <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C24" t="n">
         <v>495.0</v>
@@ -16869,7 +16866,7 @@
         <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C25" t="n">
         <v>416.0</v>
@@ -16889,7 +16886,7 @@
         <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C26" t="n">
         <v>390.0</v>
@@ -16909,7 +16906,7 @@
         <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C27" t="n">
         <v>473.0</v>
@@ -16929,7 +16926,7 @@
         <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C28" t="n">
         <v>388.0</v>
@@ -16949,7 +16946,7 @@
         <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C29" t="n">
         <v>218.0</v>
@@ -16969,7 +16966,7 @@
         <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C30" t="n">
         <v>406.0</v>
@@ -16989,7 +16986,7 @@
         <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C31" t="n">
         <v>380.0</v>
@@ -17009,7 +17006,7 @@
         <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C32" t="n">
         <v>444.0</v>
@@ -17029,7 +17026,7 @@
         <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C33" t="n">
         <v>309.0</v>
@@ -17049,7 +17046,7 @@
         <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C34" t="n">
         <v>354.0</v>
@@ -17069,7 +17066,7 @@
         <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C35" t="n">
         <v>464.0</v>
@@ -17089,7 +17086,7 @@
         <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C36" t="n">
         <v>296.0</v>
@@ -17109,7 +17106,7 @@
         <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C37" t="n">
         <v>500.0</v>
@@ -17129,7 +17126,7 @@
         <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C38" t="n">
         <v>421.0</v>
@@ -17149,7 +17146,7 @@
         <v>68</v>
       </c>
       <c r="B39" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C39" t="n">
         <v>392.0</v>
@@ -17169,7 +17166,7 @@
         <v>69</v>
       </c>
       <c r="B40" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C40" t="n">
         <v>372.0</v>
@@ -17189,7 +17186,7 @@
         <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C41" t="n">
         <v>379.0</v>
@@ -17209,7 +17206,7 @@
         <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C42" t="n">
         <v>313.0</v>
@@ -17229,7 +17226,7 @@
         <v>72</v>
       </c>
       <c r="B43" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C43" t="n">
         <v>339.0</v>
@@ -17249,7 +17246,7 @@
         <v>73</v>
       </c>
       <c r="B44" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C44" t="n">
         <v>210.0</v>
@@ -17269,7 +17266,7 @@
         <v>74</v>
       </c>
       <c r="B45" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C45" t="n">
         <v>373.0</v>
@@ -17289,7 +17286,7 @@
         <v>75</v>
       </c>
       <c r="B46" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C46" t="n">
         <v>280.0</v>
@@ -17309,7 +17306,7 @@
         <v>76</v>
       </c>
       <c r="B47" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C47" t="n">
         <v>146.0</v>
@@ -17329,7 +17326,7 @@
         <v>77</v>
       </c>
       <c r="B48" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C48" t="n">
         <v>491.0</v>
@@ -17349,7 +17346,7 @@
         <v>78</v>
       </c>
       <c r="B49" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C49" t="n">
         <v>440.0</v>
@@ -17369,7 +17366,7 @@
         <v>79</v>
       </c>
       <c r="B50" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C50" t="n">
         <v>412.0</v>
@@ -17389,7 +17386,7 @@
         <v>80</v>
       </c>
       <c r="B51" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C51" t="n">
         <v>353.0</v>
@@ -17409,7 +17406,7 @@
         <v>81</v>
       </c>
       <c r="B52" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C52" t="n">
         <v>478.0</v>
@@ -17429,7 +17426,7 @@
         <v>82</v>
       </c>
       <c r="B53" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C53" t="n">
         <v>409.0</v>
@@ -17449,7 +17446,7 @@
         <v>83</v>
       </c>
       <c r="B54" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C54" t="n">
         <v>471.0</v>
@@ -17469,7 +17466,7 @@
         <v>84</v>
       </c>
       <c r="B55" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C55" t="n">
         <v>424.0</v>
@@ -17489,7 +17486,7 @@
         <v>85</v>
       </c>
       <c r="B56" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C56" t="n">
         <v>439.0</v>
@@ -17509,7 +17506,7 @@
         <v>86</v>
       </c>
       <c r="B57" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C57" t="n">
         <v>413.0</v>
@@ -17529,7 +17526,7 @@
         <v>87</v>
       </c>
       <c r="B58" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C58" t="n">
         <v>459.0</v>
@@ -17549,7 +17546,7 @@
         <v>88</v>
       </c>
       <c r="B59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C59" t="n">
         <v>398.0</v>
@@ -17569,7 +17566,7 @@
         <v>89</v>
       </c>
       <c r="B60" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C60" t="n">
         <v>465.0</v>
@@ -17589,7 +17586,7 @@
         <v>90</v>
       </c>
       <c r="B61" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C61" t="n">
         <v>405.0</v>
@@ -17609,7 +17606,7 @@
         <v>91</v>
       </c>
       <c r="B62" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C62" t="n">
         <v>324.0</v>
@@ -17629,7 +17626,7 @@
         <v>92</v>
       </c>
       <c r="B63" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C63" t="n">
         <v>371.0</v>
@@ -17649,7 +17646,7 @@
         <v>93</v>
       </c>
       <c r="B64" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C64" t="n">
         <v>370.0</v>
@@ -17669,7 +17666,7 @@
         <v>94</v>
       </c>
       <c r="B65" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C65" t="n">
         <v>493.0</v>
@@ -17689,7 +17686,7 @@
         <v>95</v>
       </c>
       <c r="B66" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C66" t="n">
         <v>320.0</v>
@@ -17709,7 +17706,7 @@
         <v>96</v>
       </c>
       <c r="B67" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C67" t="n">
         <v>417.0</v>
@@ -17729,7 +17726,7 @@
         <v>97</v>
       </c>
       <c r="B68" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C68" t="n">
         <v>229.0</v>
@@ -17749,7 +17746,7 @@
         <v>98</v>
       </c>
       <c r="B69" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C69" t="n">
         <v>374.0</v>
@@ -17769,7 +17766,7 @@
         <v>99</v>
       </c>
       <c r="B70" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C70" t="n">
         <v>369.0</v>
@@ -17789,7 +17786,7 @@
         <v>100</v>
       </c>
       <c r="B71" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C71" t="n">
         <v>356.0</v>
@@ -17809,7 +17806,7 @@
         <v>101</v>
       </c>
       <c r="B72" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C72" t="n">
         <v>484.0</v>
@@ -17829,7 +17826,7 @@
         <v>102</v>
       </c>
       <c r="B73" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C73" t="n">
         <v>284.0</v>
@@ -17849,7 +17846,7 @@
         <v>103</v>
       </c>
       <c r="B74" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C74" t="n">
         <v>410.0</v>
@@ -17869,7 +17866,7 @@
         <v>104</v>
       </c>
       <c r="B75" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C75" t="n">
         <v>418.0</v>
@@ -17889,7 +17886,7 @@
         <v>105</v>
       </c>
       <c r="B76" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C76" t="n">
         <v>426.0</v>
@@ -17909,7 +17906,7 @@
         <v>106</v>
       </c>
       <c r="B77" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C77" t="n">
         <v>53.0</v>
@@ -17929,7 +17926,7 @@
         <v>107</v>
       </c>
       <c r="B78" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C78" t="n">
         <v>387.0</v>
@@ -17949,7 +17946,7 @@
         <v>108</v>
       </c>
       <c r="B79" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C79" t="n">
         <v>293.0</v>
@@ -17969,7 +17966,7 @@
         <v>109</v>
       </c>
       <c r="B80" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C80" t="n">
         <v>271.0</v>
@@ -17989,7 +17986,7 @@
         <v>110</v>
       </c>
       <c r="B81" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C81" t="n">
         <v>315.0</v>
@@ -18009,7 +18006,7 @@
         <v>111</v>
       </c>
       <c r="B82" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C82" t="n">
         <v>470.0</v>
@@ -18029,7 +18026,7 @@
         <v>112</v>
       </c>
       <c r="B83" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C83" t="n">
         <v>428.0</v>
@@ -18049,7 +18046,7 @@
         <v>113</v>
       </c>
       <c r="B84" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C84" t="n">
         <v>394.0</v>
@@ -18069,7 +18066,7 @@
         <v>114</v>
       </c>
       <c r="B85" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C85" t="n">
         <v>482.0</v>
@@ -18089,7 +18086,7 @@
         <v>115</v>
       </c>
       <c r="B86" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C86" t="n">
         <v>492.0</v>
@@ -18109,7 +18106,7 @@
         <v>116</v>
       </c>
       <c r="B87" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C87" t="n">
         <v>479.0</v>
@@ -18129,7 +18126,7 @@
         <v>117</v>
       </c>
       <c r="B88" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C88" t="n">
         <v>510.0</v>
@@ -18149,7 +18146,7 @@
         <v>118</v>
       </c>
       <c r="B89" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C89" t="n">
         <v>506.0</v>
@@ -18169,7 +18166,7 @@
         <v>119</v>
       </c>
       <c r="B90" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C90" t="n">
         <v>513.0</v>
@@ -18189,7 +18186,7 @@
         <v>120</v>
       </c>
       <c r="B91" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C91" t="n">
         <v>489.0</v>
@@ -18209,7 +18206,7 @@
         <v>121</v>
       </c>
       <c r="B92" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C92" t="n">
         <v>512.0</v>
@@ -18229,7 +18226,7 @@
         <v>122</v>
       </c>
       <c r="B93" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C93" t="n">
         <v>508.0</v>
@@ -18249,7 +18246,7 @@
         <v>123</v>
       </c>
       <c r="B94" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C94" t="n">
         <v>452.0</v>
@@ -18269,7 +18266,7 @@
         <v>124</v>
       </c>
       <c r="B95" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C95" t="n">
         <v>474.0</v>
@@ -18289,7 +18286,7 @@
         <v>125</v>
       </c>
       <c r="B96" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C96" t="n">
         <v>475.0</v>
@@ -18309,7 +18306,7 @@
         <v>126</v>
       </c>
       <c r="B97" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C97" t="n">
         <v>472.0</v>
@@ -18329,7 +18326,7 @@
         <v>127</v>
       </c>
       <c r="B98" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C98" t="n">
         <v>477.0</v>
@@ -18349,7 +18346,7 @@
         <v>128</v>
       </c>
       <c r="B99" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C99" t="n">
         <v>403.0</v>
@@ -18369,7 +18366,7 @@
         <v>129</v>
       </c>
       <c r="B100" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C100"/>
       <c r="D100"/>
@@ -18381,7 +18378,7 @@
         <v>130</v>
       </c>
       <c r="B101" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C101" t="n">
         <v>254.0</v>
@@ -18401,7 +18398,7 @@
         <v>131</v>
       </c>
       <c r="B102" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C102" t="n">
         <v>436.0</v>
@@ -18421,7 +18418,7 @@
         <v>132</v>
       </c>
       <c r="B103" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C103"/>
       <c r="D103"/>
@@ -18433,7 +18430,7 @@
         <v>133</v>
       </c>
       <c r="B104" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C104" t="n">
         <v>486.0</v>
@@ -18453,7 +18450,7 @@
         <v>134</v>
       </c>
       <c r="B105" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C105" t="n">
         <v>466.0</v>
@@ -18473,7 +18470,7 @@
         <v>135</v>
       </c>
       <c r="B106" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C106" t="n">
         <v>455.0</v>
@@ -18493,7 +18490,7 @@
         <v>136</v>
       </c>
       <c r="B107" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C107" t="n">
         <v>423.0</v>
@@ -18513,7 +18510,7 @@
         <v>137</v>
       </c>
       <c r="B108" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C108" t="n">
         <v>414.0</v>
@@ -18533,7 +18530,7 @@
         <v>138</v>
       </c>
       <c r="B109" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C109" t="n">
         <v>458.0</v>
@@ -18553,7 +18550,7 @@
         <v>139</v>
       </c>
       <c r="B110" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C110" t="n">
         <v>476.0</v>
@@ -18573,7 +18570,7 @@
         <v>140</v>
       </c>
       <c r="B111" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C111" t="n">
         <v>454.0</v>
@@ -18593,7 +18590,7 @@
         <v>141</v>
       </c>
       <c r="B112" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C112" t="n">
         <v>349.0</v>
@@ -18613,7 +18610,7 @@
         <v>142</v>
       </c>
       <c r="B113" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C113" t="n">
         <v>457.0</v>
@@ -18633,7 +18630,7 @@
         <v>143</v>
       </c>
       <c r="B114" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C114" t="n">
         <v>490.0</v>
@@ -18653,7 +18650,7 @@
         <v>144</v>
       </c>
       <c r="B115" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C115" t="n">
         <v>507.0</v>
@@ -18673,7 +18670,7 @@
         <v>145</v>
       </c>
       <c r="B116" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C116" t="n">
         <v>456.0</v>
@@ -18693,7 +18690,7 @@
         <v>146</v>
       </c>
       <c r="B117" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C117" t="n">
         <v>509.0</v>
@@ -18713,7 +18710,7 @@
         <v>147</v>
       </c>
       <c r="B118" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C118" t="n">
         <v>463.0</v>
@@ -18733,7 +18730,7 @@
         <v>148</v>
       </c>
       <c r="B119" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C119" t="n">
         <v>502.0</v>
@@ -18753,7 +18750,7 @@
         <v>149</v>
       </c>
       <c r="B120" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C120" t="n">
         <v>469.0</v>
@@ -18773,7 +18770,7 @@
         <v>150</v>
       </c>
       <c r="B121" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C121" t="n">
         <v>480.0</v>
@@ -18793,7 +18790,7 @@
         <v>151</v>
       </c>
       <c r="B122" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C122" t="n">
         <v>483.0</v>
@@ -18813,7 +18810,7 @@
         <v>152</v>
       </c>
       <c r="B123" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C123" t="n">
         <v>460.0</v>
@@ -18833,7 +18830,7 @@
         <v>153</v>
       </c>
       <c r="B124" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C124" t="n">
         <v>504.0</v>
@@ -18853,7 +18850,7 @@
         <v>154</v>
       </c>
       <c r="B125" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C125" t="n">
         <v>481.0</v>
@@ -18873,7 +18870,7 @@
         <v>155</v>
       </c>
       <c r="B126" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C126" t="n">
         <v>494.0</v>
@@ -18893,7 +18890,7 @@
         <v>156</v>
       </c>
       <c r="B127" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C127" t="n">
         <v>433.0</v>
@@ -18913,7 +18910,7 @@
         <v>157</v>
       </c>
       <c r="B128" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C128" t="n">
         <v>453.0</v>
@@ -18933,7 +18930,7 @@
         <v>158</v>
       </c>
       <c r="B129" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C129" t="n">
         <v>499.0</v>
@@ -18953,7 +18950,7 @@
         <v>159</v>
       </c>
       <c r="B130" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C130" t="n">
         <v>498.0</v>
@@ -18973,7 +18970,7 @@
         <v>160</v>
       </c>
       <c r="B131" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C131" t="n">
         <v>467.0</v>
@@ -18993,7 +18990,7 @@
         <v>161</v>
       </c>
       <c r="B132" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C132" t="n">
         <v>449.0</v>
@@ -19013,7 +19010,7 @@
         <v>162</v>
       </c>
       <c r="B133" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C133" t="n">
         <v>501.0</v>
@@ -19033,7 +19030,7 @@
         <v>163</v>
       </c>
       <c r="B134" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C134" t="n">
         <v>496.0</v>
@@ -19053,7 +19050,7 @@
         <v>164</v>
       </c>
       <c r="B135" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C135" t="n">
         <v>511.0</v>
@@ -19073,7 +19070,7 @@
         <v>165</v>
       </c>
       <c r="B136" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C136" t="n">
         <v>505.0</v>
@@ -19093,7 +19090,7 @@
         <v>166</v>
       </c>
       <c r="B137" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C137" t="n">
         <v>488.0</v>
@@ -19113,7 +19110,7 @@
         <v>167</v>
       </c>
       <c r="B138" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C138" t="n">
         <v>485.0</v>
@@ -19133,7 +19130,7 @@
         <v>168</v>
       </c>
       <c r="B139" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C139" t="n">
         <v>415.0</v>
@@ -19153,7 +19150,7 @@
         <v>169</v>
       </c>
       <c r="B140" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C140" t="n">
         <v>347.0</v>
@@ -19173,7 +19170,7 @@
         <v>170</v>
       </c>
       <c r="B141" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C141" t="n">
         <v>384.0</v>
@@ -19193,7 +19190,7 @@
         <v>171</v>
       </c>
       <c r="B142" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C142" t="n">
         <v>402.0</v>
@@ -19213,7 +19210,7 @@
         <v>172</v>
       </c>
       <c r="B143" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C143" t="n">
         <v>340.0</v>
@@ -19233,7 +19230,7 @@
         <v>173</v>
       </c>
       <c r="B144" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C144" t="n">
         <v>189.0</v>
@@ -19253,7 +19250,7 @@
         <v>174</v>
       </c>
       <c r="B145" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C145" t="n">
         <v>183.0</v>
@@ -19273,7 +19270,7 @@
         <v>175</v>
       </c>
       <c r="B146" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C146" t="n">
         <v>209.0</v>
@@ -19293,7 +19290,7 @@
         <v>176</v>
       </c>
       <c r="B147" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C147" t="n">
         <v>217.0</v>
@@ -19313,7 +19310,7 @@
         <v>177</v>
       </c>
       <c r="B148" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C148" t="n">
         <v>129.0</v>
@@ -19333,7 +19330,7 @@
         <v>178</v>
       </c>
       <c r="B149" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C149" t="n">
         <v>199.0</v>
@@ -19353,7 +19350,7 @@
         <v>179</v>
       </c>
       <c r="B150" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C150" t="n">
         <v>233.0</v>
@@ -19373,7 +19370,7 @@
         <v>180</v>
       </c>
       <c r="B151" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C151"/>
       <c r="D151"/>
@@ -19385,7 +19382,7 @@
         <v>181</v>
       </c>
       <c r="B152" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C152" t="n">
         <v>14.0</v>
@@ -19405,7 +19402,7 @@
         <v>182</v>
       </c>
       <c r="B153" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C153" t="n">
         <v>20.0</v>
@@ -19425,7 +19422,7 @@
         <v>183</v>
       </c>
       <c r="B154" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C154" t="n">
         <v>277.0</v>
@@ -19445,7 +19442,7 @@
         <v>184</v>
       </c>
       <c r="B155" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C155" t="n">
         <v>36.0</v>
@@ -19465,7 +19462,7 @@
         <v>185</v>
       </c>
       <c r="B156" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C156" t="n">
         <v>83.0</v>
@@ -19485,7 +19482,7 @@
         <v>186</v>
       </c>
       <c r="B157" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C157" t="n">
         <v>317.0</v>
@@ -19505,7 +19502,7 @@
         <v>187</v>
       </c>
       <c r="B158" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C158" t="n">
         <v>31.0</v>
@@ -19525,7 +19522,7 @@
         <v>188</v>
       </c>
       <c r="B159" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C159" t="n">
         <v>155.0</v>
@@ -19545,7 +19542,7 @@
         <v>189</v>
       </c>
       <c r="B160" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C160" t="n">
         <v>40.0</v>
@@ -19565,7 +19562,7 @@
         <v>190</v>
       </c>
       <c r="B161" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C161" t="n">
         <v>137.0</v>
@@ -19585,7 +19582,7 @@
         <v>191</v>
       </c>
       <c r="B162" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C162" t="n">
         <v>107.0</v>
@@ -19605,7 +19602,7 @@
         <v>192</v>
       </c>
       <c r="B163" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C163"/>
       <c r="D163"/>
@@ -19617,7 +19614,7 @@
         <v>193</v>
       </c>
       <c r="B164" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C164" t="n">
         <v>2.0</v>
@@ -19637,7 +19634,7 @@
         <v>194</v>
       </c>
       <c r="B165" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C165" t="n">
         <v>121.0</v>
@@ -19657,7 +19654,7 @@
         <v>195</v>
       </c>
       <c r="B166" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C166" t="n">
         <v>269.0</v>
@@ -19677,7 +19674,7 @@
         <v>196</v>
       </c>
       <c r="B167" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C167" t="n">
         <v>145.0</v>
@@ -19697,7 +19694,7 @@
         <v>197</v>
       </c>
       <c r="B168" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C168" t="n">
         <v>29.0</v>
@@ -19717,7 +19714,7 @@
         <v>198</v>
       </c>
       <c r="B169" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C169" t="n">
         <v>207.0</v>
@@ -19737,7 +19734,7 @@
         <v>199</v>
       </c>
       <c r="B170" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C170" t="n">
         <v>214.0</v>
@@ -19757,7 +19754,7 @@
         <v>200</v>
       </c>
       <c r="B171" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C171" t="n">
         <v>76.0</v>
@@ -19777,7 +19774,7 @@
         <v>201</v>
       </c>
       <c r="B172" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C172" t="n">
         <v>195.0</v>
@@ -19797,7 +19794,7 @@
         <v>202</v>
       </c>
       <c r="B173" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C173" t="n">
         <v>166.0</v>
@@ -19817,7 +19814,7 @@
         <v>203</v>
       </c>
       <c r="B174" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C174" t="n">
         <v>215.0</v>
@@ -19837,7 +19834,7 @@
         <v>204</v>
       </c>
       <c r="B175" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C175" t="n">
         <v>132.0</v>
@@ -19857,7 +19854,7 @@
         <v>205</v>
       </c>
       <c r="B176" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C176" t="n">
         <v>197.0</v>
@@ -19877,7 +19874,7 @@
         <v>206</v>
       </c>
       <c r="B177" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C177" t="n">
         <v>231.0</v>
@@ -19897,7 +19894,7 @@
         <v>207</v>
       </c>
       <c r="B178" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C178" t="n">
         <v>245.0</v>
@@ -19917,7 +19914,7 @@
         <v>208</v>
       </c>
       <c r="B179" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C179" t="n">
         <v>35.0</v>
@@ -19937,7 +19934,7 @@
         <v>209</v>
       </c>
       <c r="B180" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C180" t="n">
         <v>130.0</v>
@@ -19957,7 +19954,7 @@
         <v>210</v>
       </c>
       <c r="B181" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C181" t="n">
         <v>131.0</v>
@@ -19977,7 +19974,7 @@
         <v>211</v>
       </c>
       <c r="B182" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C182" t="n">
         <v>105.0</v>
@@ -19997,7 +19994,7 @@
         <v>212</v>
       </c>
       <c r="B183" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C183" t="n">
         <v>201.0</v>
@@ -20017,7 +20014,7 @@
         <v>213</v>
       </c>
       <c r="B184" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C184" t="n">
         <v>171.0</v>
@@ -20037,7 +20034,7 @@
         <v>214</v>
       </c>
       <c r="B185" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C185" t="n">
         <v>213.0</v>
@@ -20057,7 +20054,7 @@
         <v>215</v>
       </c>
       <c r="B186" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C186" t="n">
         <v>187.0</v>
@@ -20077,7 +20074,7 @@
         <v>216</v>
       </c>
       <c r="B187" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C187" t="n">
         <v>152.0</v>
@@ -20097,7 +20094,7 @@
         <v>217</v>
       </c>
       <c r="B188" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C188" t="n">
         <v>58.0</v>
@@ -20117,7 +20114,7 @@
         <v>218</v>
       </c>
       <c r="B189" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C189" t="n">
         <v>147.0</v>
@@ -20137,7 +20134,7 @@
         <v>219</v>
       </c>
       <c r="B190" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C190" t="n">
         <v>64.0</v>
@@ -20157,7 +20154,7 @@
         <v>220</v>
       </c>
       <c r="B191" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C191" t="n">
         <v>100.0</v>
@@ -20177,7 +20174,7 @@
         <v>221</v>
       </c>
       <c r="B192" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C192" t="n">
         <v>220.0</v>
@@ -20197,7 +20194,7 @@
         <v>222</v>
       </c>
       <c r="B193" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C193" t="n">
         <v>272.0</v>
@@ -20217,7 +20214,7 @@
         <v>223</v>
       </c>
       <c r="B194" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C194" t="n">
         <v>30.0</v>
@@ -20237,7 +20234,7 @@
         <v>224</v>
       </c>
       <c r="B195" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C195" t="n">
         <v>157.0</v>
@@ -20257,7 +20254,7 @@
         <v>225</v>
       </c>
       <c r="B196" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C196" t="n">
         <v>118.0</v>
@@ -20277,7 +20274,7 @@
         <v>226</v>
       </c>
       <c r="B197" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C197" t="n">
         <v>237.0</v>
@@ -20297,7 +20294,7 @@
         <v>227</v>
       </c>
       <c r="B198" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C198" t="n">
         <v>383.0</v>
@@ -20317,7 +20314,7 @@
         <v>228</v>
       </c>
       <c r="B199" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C199" t="n">
         <v>141.0</v>
@@ -20337,7 +20334,7 @@
         <v>229</v>
       </c>
       <c r="B200" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C200" t="n">
         <v>51.0</v>
@@ -20357,7 +20354,7 @@
         <v>230</v>
       </c>
       <c r="B201" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C201" t="n">
         <v>9.0</v>
@@ -20377,7 +20374,7 @@
         <v>231</v>
       </c>
       <c r="B202" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C202" t="n">
         <v>260.0</v>
@@ -20397,7 +20394,7 @@
         <v>232</v>
       </c>
       <c r="B203" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C203" t="n">
         <v>56.0</v>
@@ -20417,7 +20414,7 @@
         <v>233</v>
       </c>
       <c r="B204" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C204" t="n">
         <v>139.0</v>
@@ -20437,7 +20434,7 @@
         <v>234</v>
       </c>
       <c r="B205" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C205" t="n">
         <v>120.0</v>
@@ -20457,7 +20454,7 @@
         <v>235</v>
       </c>
       <c r="B206" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C206" t="n">
         <v>18.0</v>
@@ -20477,7 +20474,7 @@
         <v>236</v>
       </c>
       <c r="B207" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C207" t="n">
         <v>198.0</v>
@@ -20497,7 +20494,7 @@
         <v>237</v>
       </c>
       <c r="B208" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C208" t="n">
         <v>202.0</v>
@@ -20517,7 +20514,7 @@
         <v>238</v>
       </c>
       <c r="B209" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C209" t="n">
         <v>248.0</v>
@@ -20537,7 +20534,7 @@
         <v>239</v>
       </c>
       <c r="B210" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C210"/>
       <c r="D210"/>
@@ -20549,7 +20546,7 @@
         <v>240</v>
       </c>
       <c r="B211" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C211" t="n">
         <v>259.0</v>
@@ -20569,7 +20566,7 @@
         <v>241</v>
       </c>
       <c r="B212" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C212" t="n">
         <v>221.0</v>
@@ -20589,7 +20586,7 @@
         <v>242</v>
       </c>
       <c r="B213" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C213" t="n">
         <v>223.0</v>
@@ -20609,7 +20606,7 @@
         <v>243</v>
       </c>
       <c r="B214" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C214" t="n">
         <v>204.0</v>
@@ -20629,7 +20626,7 @@
         <v>244</v>
       </c>
       <c r="B215" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C215" t="n">
         <v>74.0</v>
@@ -20649,7 +20646,7 @@
         <v>245</v>
       </c>
       <c r="B216" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C216" t="n">
         <v>276.0</v>
@@ -20669,7 +20666,7 @@
         <v>246</v>
       </c>
       <c r="B217" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C217"/>
       <c r="D217"/>
@@ -20681,7 +20678,7 @@
         <v>247</v>
       </c>
       <c r="B218" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C218" t="n">
         <v>230.0</v>
@@ -20701,7 +20698,7 @@
         <v>248</v>
       </c>
       <c r="B219" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C219" t="n">
         <v>96.0</v>
@@ -20721,7 +20718,7 @@
         <v>249</v>
       </c>
       <c r="B220" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C220" t="n">
         <v>224.0</v>
@@ -20741,7 +20738,7 @@
         <v>250</v>
       </c>
       <c r="B221" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C221" t="n">
         <v>182.0</v>
@@ -20761,7 +20758,7 @@
         <v>251</v>
       </c>
       <c r="B222" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C222"/>
       <c r="D222"/>
@@ -20773,7 +20770,7 @@
         <v>252</v>
       </c>
       <c r="B223" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C223" t="n">
         <v>247.0</v>
@@ -20793,7 +20790,7 @@
         <v>253</v>
       </c>
       <c r="B224" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C224" t="n">
         <v>113.0</v>
@@ -20813,7 +20810,7 @@
         <v>254</v>
       </c>
       <c r="B225" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C225" t="n">
         <v>431.0</v>
@@ -20833,7 +20830,7 @@
         <v>255</v>
       </c>
       <c r="B226" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C226" t="n">
         <v>336.0</v>
@@ -20853,7 +20850,7 @@
         <v>256</v>
       </c>
       <c r="B227" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C227" t="n">
         <v>330.0</v>
@@ -20873,7 +20870,7 @@
         <v>257</v>
       </c>
       <c r="B228" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C228" t="n">
         <v>335.0</v>
@@ -20893,7 +20890,7 @@
         <v>258</v>
       </c>
       <c r="B229" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C229" t="n">
         <v>328.0</v>
@@ -20913,7 +20910,7 @@
         <v>259</v>
       </c>
       <c r="B230" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C230" t="n">
         <v>334.0</v>
@@ -20933,7 +20930,7 @@
         <v>260</v>
       </c>
       <c r="B231" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C231" t="n">
         <v>194.0</v>
@@ -20953,7 +20950,7 @@
         <v>261</v>
       </c>
       <c r="B232" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C232" t="n">
         <v>281.0</v>
@@ -20973,7 +20970,7 @@
         <v>262</v>
       </c>
       <c r="B233" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C233" t="n">
         <v>264.0</v>
@@ -20993,7 +20990,7 @@
         <v>263</v>
       </c>
       <c r="B234" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C234" t="n">
         <v>302.0</v>
@@ -21013,7 +21010,7 @@
         <v>264</v>
       </c>
       <c r="B235" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C235" t="n">
         <v>267.0</v>
@@ -21033,7 +21030,7 @@
         <v>265</v>
       </c>
       <c r="B236" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C236" t="n">
         <v>300.0</v>
@@ -21053,7 +21050,7 @@
         <v>266</v>
       </c>
       <c r="B237" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C237" t="n">
         <v>222.0</v>
@@ -21073,7 +21070,7 @@
         <v>267</v>
       </c>
       <c r="B238" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C238" t="n">
         <v>122.0</v>
@@ -21093,7 +21090,7 @@
         <v>268</v>
       </c>
       <c r="B239" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C239" t="n">
         <v>114.0</v>
@@ -21113,7 +21110,7 @@
         <v>269</v>
       </c>
       <c r="B240" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C240" t="n">
         <v>397.0</v>
@@ -21133,7 +21130,7 @@
         <v>270</v>
       </c>
       <c r="B241" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C241" t="n">
         <v>338.0</v>
@@ -21153,7 +21150,7 @@
         <v>271</v>
       </c>
       <c r="B242" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C242" t="n">
         <v>329.0</v>
@@ -21173,7 +21170,7 @@
         <v>272</v>
       </c>
       <c r="B243" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C243" t="n">
         <v>341.0</v>
@@ -21193,7 +21190,7 @@
         <v>273</v>
       </c>
       <c r="B244" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C244" t="n">
         <v>411.0</v>
@@ -21213,7 +21210,7 @@
         <v>274</v>
       </c>
       <c r="B245" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C245" t="n">
         <v>377.0</v>
@@ -21233,7 +21230,7 @@
         <v>275</v>
       </c>
       <c r="B246" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C246" t="n">
         <v>419.0</v>
@@ -21253,7 +21250,7 @@
         <v>276</v>
       </c>
       <c r="B247" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C247" t="n">
         <v>292.0</v>
@@ -21273,7 +21270,7 @@
         <v>277</v>
       </c>
       <c r="B248" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C248" t="n">
         <v>242.0</v>
@@ -21293,7 +21290,7 @@
         <v>278</v>
       </c>
       <c r="B249" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C249" t="n">
         <v>193.0</v>
@@ -21313,7 +21310,7 @@
         <v>279</v>
       </c>
       <c r="B250" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C250" t="n">
         <v>323.0</v>
@@ -21333,7 +21330,7 @@
         <v>280</v>
       </c>
       <c r="B251" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C251" t="n">
         <v>401.0</v>
@@ -21353,7 +21350,7 @@
         <v>281</v>
       </c>
       <c r="B252" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C252" t="n">
         <v>321.0</v>
@@ -21373,7 +21370,7 @@
         <v>282</v>
       </c>
       <c r="B253" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C253" t="n">
         <v>362.0</v>
@@ -21393,7 +21390,7 @@
         <v>283</v>
       </c>
       <c r="B254" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C254" t="n">
         <v>448.0</v>
@@ -21413,7 +21410,7 @@
         <v>284</v>
       </c>
       <c r="B255" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C255" t="n">
         <v>244.0</v>
@@ -21433,7 +21430,7 @@
         <v>285</v>
       </c>
       <c r="B256" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C256" t="n">
         <v>352.0</v>
@@ -21453,7 +21450,7 @@
         <v>286</v>
       </c>
       <c r="B257" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C257" t="n">
         <v>322.0</v>
@@ -21473,7 +21470,7 @@
         <v>287</v>
       </c>
       <c r="B258" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C258" t="n">
         <v>226.0</v>
@@ -21493,7 +21490,7 @@
         <v>288</v>
       </c>
       <c r="B259" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C259" t="n">
         <v>306.0</v>
@@ -21513,7 +21510,7 @@
         <v>289</v>
       </c>
       <c r="B260" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C260" t="n">
         <v>442.0</v>
@@ -21533,7 +21530,7 @@
         <v>290</v>
       </c>
       <c r="B261" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C261" t="n">
         <v>239.0</v>
@@ -21553,7 +21550,7 @@
         <v>291</v>
       </c>
       <c r="B262" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C262" t="n">
         <v>375.0</v>
@@ -21573,7 +21570,7 @@
         <v>292</v>
       </c>
       <c r="B263" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C263" t="n">
         <v>294.0</v>
@@ -21593,7 +21590,7 @@
         <v>293</v>
       </c>
       <c r="B264" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C264" t="n">
         <v>291.0</v>
@@ -21613,7 +21610,7 @@
         <v>294</v>
       </c>
       <c r="B265" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C265" t="n">
         <v>286.0</v>
@@ -21633,7 +21630,7 @@
         <v>295</v>
       </c>
       <c r="B266" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C266" t="n">
         <v>345.0</v>
@@ -21653,7 +21650,7 @@
         <v>296</v>
       </c>
       <c r="B267" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C267" t="n">
         <v>151.0</v>
@@ -21673,7 +21670,7 @@
         <v>297</v>
       </c>
       <c r="B268" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C268" t="n">
         <v>228.0</v>
@@ -21693,7 +21690,7 @@
         <v>298</v>
       </c>
       <c r="B269" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C269" t="n">
         <v>427.0</v>
@@ -21713,7 +21710,7 @@
         <v>299</v>
       </c>
       <c r="B270" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C270" t="n">
         <v>447.0</v>
@@ -21733,7 +21730,7 @@
         <v>300</v>
       </c>
       <c r="B271" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C271" t="n">
         <v>425.0</v>
@@ -21753,7 +21750,7 @@
         <v>301</v>
       </c>
       <c r="B272" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C272" t="n">
         <v>241.0</v>
@@ -21773,7 +21770,7 @@
         <v>302</v>
       </c>
       <c r="B273" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C273" t="n">
         <v>185.0</v>
@@ -21793,7 +21790,7 @@
         <v>303</v>
       </c>
       <c r="B274" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C274" t="n">
         <v>128.0</v>
@@ -21813,7 +21810,7 @@
         <v>304</v>
       </c>
       <c r="B275" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C275" t="n">
         <v>310.0</v>
@@ -21833,7 +21830,7 @@
         <v>305</v>
       </c>
       <c r="B276" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C276" t="n">
         <v>12.0</v>
@@ -21853,7 +21850,7 @@
         <v>306</v>
       </c>
       <c r="B277" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C277" t="n">
         <v>399.0</v>
@@ -21873,7 +21870,7 @@
         <v>307</v>
       </c>
       <c r="B278" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C278" t="n">
         <v>10.0</v>
@@ -21893,7 +21890,7 @@
         <v>308</v>
       </c>
       <c r="B279" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C279" t="n">
         <v>196.0</v>
@@ -21913,7 +21910,7 @@
         <v>309</v>
       </c>
       <c r="B280" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C280" t="n">
         <v>78.0</v>
@@ -21933,7 +21930,7 @@
         <v>310</v>
       </c>
       <c r="B281" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C281"/>
       <c r="D281"/>
@@ -21945,7 +21942,7 @@
         <v>311</v>
       </c>
       <c r="B282" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C282" t="n">
         <v>97.0</v>
@@ -21965,7 +21962,7 @@
         <v>312</v>
       </c>
       <c r="B283" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C283" t="n">
         <v>98.0</v>
@@ -21985,7 +21982,7 @@
         <v>313</v>
       </c>
       <c r="B284" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C284" t="n">
         <v>173.0</v>
@@ -22005,7 +22002,7 @@
         <v>314</v>
       </c>
       <c r="B285" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C285" t="n">
         <v>119.0</v>
@@ -22025,7 +22022,7 @@
         <v>315</v>
       </c>
       <c r="B286" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C286" t="n">
         <v>65.0</v>
@@ -22045,7 +22042,7 @@
         <v>316</v>
       </c>
       <c r="B287" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C287" t="n">
         <v>184.0</v>
@@ -22065,7 +22062,7 @@
         <v>317</v>
       </c>
       <c r="B288" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C288" t="n">
         <v>134.0</v>
@@ -22085,7 +22082,7 @@
         <v>318</v>
       </c>
       <c r="B289" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C289" t="n">
         <v>72.0</v>
@@ -22105,7 +22102,7 @@
         <v>319</v>
       </c>
       <c r="B290" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C290" t="n">
         <v>358.0</v>
@@ -22125,7 +22122,7 @@
         <v>320</v>
       </c>
       <c r="B291" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C291" t="n">
         <v>429.0</v>
@@ -22145,7 +22142,7 @@
         <v>321</v>
       </c>
       <c r="B292" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C292" t="n">
         <v>461.0</v>
@@ -22165,7 +22162,7 @@
         <v>322</v>
       </c>
       <c r="B293" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C293" t="n">
         <v>19.0</v>
@@ -22185,7 +22182,7 @@
         <v>323</v>
       </c>
       <c r="B294" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C294" t="n">
         <v>69.0</v>
@@ -22205,7 +22202,7 @@
         <v>324</v>
       </c>
       <c r="B295" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C295" t="n">
         <v>162.0</v>
@@ -22225,7 +22222,7 @@
         <v>325</v>
       </c>
       <c r="B296" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C296" t="n">
         <v>367.0</v>
@@ -22245,7 +22242,7 @@
         <v>326</v>
       </c>
       <c r="B297" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C297" t="n">
         <v>13.0</v>
@@ -22265,7 +22262,7 @@
         <v>327</v>
       </c>
       <c r="B298" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C298" t="n">
         <v>381.0</v>
@@ -22285,7 +22282,7 @@
         <v>328</v>
       </c>
       <c r="B299" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C299" t="n">
         <v>175.0</v>
@@ -22305,7 +22302,7 @@
         <v>329</v>
       </c>
       <c r="B300" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C300"/>
       <c r="D300"/>
@@ -22317,7 +22314,7 @@
         <v>330</v>
       </c>
       <c r="B301" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C301" t="n">
         <v>148.0</v>
@@ -22337,7 +22334,7 @@
         <v>331</v>
       </c>
       <c r="B302" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C302" t="n">
         <v>33.0</v>
@@ -22357,7 +22354,7 @@
         <v>332</v>
       </c>
       <c r="B303" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C303"/>
       <c r="D303"/>
@@ -22369,7 +22366,7 @@
         <v>333</v>
       </c>
       <c r="B304" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C304" t="n">
         <v>73.0</v>
@@ -22389,7 +22386,7 @@
         <v>334</v>
       </c>
       <c r="B305" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C305" t="n">
         <v>290.0</v>
@@ -22409,7 +22406,7 @@
         <v>335</v>
       </c>
       <c r="B306" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C306" t="n">
         <v>386.0</v>
@@ -22429,7 +22426,7 @@
         <v>336</v>
       </c>
       <c r="B307" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C307" t="n">
         <v>86.0</v>
@@ -22449,7 +22446,7 @@
         <v>337</v>
       </c>
       <c r="B308" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C308" t="n">
         <v>27.0</v>
@@ -22469,7 +22466,7 @@
         <v>338</v>
       </c>
       <c r="B309" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C309" t="n">
         <v>21.0</v>
@@ -22489,7 +22486,7 @@
         <v>339</v>
       </c>
       <c r="B310" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C310" t="n">
         <v>177.0</v>
@@ -22509,7 +22506,7 @@
         <v>340</v>
       </c>
       <c r="B311" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C311" t="n">
         <v>170.0</v>
@@ -22529,7 +22526,7 @@
         <v>341</v>
       </c>
       <c r="B312" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C312" t="n">
         <v>333.0</v>
@@ -22549,7 +22546,7 @@
         <v>342</v>
       </c>
       <c r="B313" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C313" t="n">
         <v>112.0</v>
@@ -22569,7 +22566,7 @@
         <v>343</v>
       </c>
       <c r="B314" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C314" t="n">
         <v>91.0</v>
@@ -22589,7 +22586,7 @@
         <v>344</v>
       </c>
       <c r="B315" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C315" t="n">
         <v>235.0</v>
@@ -22609,7 +22606,7 @@
         <v>345</v>
       </c>
       <c r="B316" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C316" t="n">
         <v>44.0</v>
@@ -22629,7 +22626,7 @@
         <v>346</v>
       </c>
       <c r="B317" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C317"/>
       <c r="D317"/>
@@ -22641,7 +22638,7 @@
         <v>347</v>
       </c>
       <c r="B318" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C318" t="n">
         <v>227.0</v>
@@ -22661,7 +22658,7 @@
         <v>348</v>
       </c>
       <c r="B319" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C319" t="n">
         <v>39.0</v>
@@ -22681,7 +22678,7 @@
         <v>349</v>
       </c>
       <c r="B320" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C320" t="n">
         <v>308.0</v>
@@ -22701,7 +22698,7 @@
         <v>350</v>
       </c>
       <c r="B321" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C321" t="n">
         <v>225.0</v>
@@ -22721,7 +22718,7 @@
         <v>351</v>
       </c>
       <c r="B322" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C322" t="n">
         <v>348.0</v>
@@ -22741,7 +22738,7 @@
         <v>352</v>
       </c>
       <c r="B323" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C323" t="n">
         <v>274.0</v>
@@ -22761,7 +22758,7 @@
         <v>353</v>
       </c>
       <c r="B324" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C324" t="n">
         <v>303.0</v>
@@ -22781,7 +22778,7 @@
         <v>354</v>
       </c>
       <c r="B325" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C325" t="n">
         <v>126.0</v>
@@ -22801,7 +22798,7 @@
         <v>355</v>
       </c>
       <c r="B326" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C326" t="n">
         <v>422.0</v>
@@ -22821,7 +22818,7 @@
         <v>356</v>
       </c>
       <c r="B327" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C327" t="n">
         <v>266.0</v>
@@ -22841,7 +22838,7 @@
         <v>357</v>
       </c>
       <c r="B328" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C328" t="n">
         <v>55.0</v>
@@ -22861,7 +22858,7 @@
         <v>358</v>
       </c>
       <c r="B329" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C329" t="n">
         <v>400.0</v>
@@ -22881,7 +22878,7 @@
         <v>359</v>
       </c>
       <c r="B330" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C330" t="n">
         <v>48.0</v>
@@ -22901,7 +22898,7 @@
         <v>360</v>
       </c>
       <c r="B331" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C331" t="n">
         <v>376.0</v>
@@ -22921,7 +22918,7 @@
         <v>361</v>
       </c>
       <c r="B332" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C332" t="n">
         <v>16.0</v>
@@ -22941,7 +22938,7 @@
         <v>362</v>
       </c>
       <c r="B333" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C333" t="n">
         <v>7.0</v>
@@ -22961,7 +22958,7 @@
         <v>363</v>
       </c>
       <c r="B334" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C334" t="n">
         <v>344.0</v>
@@ -22981,7 +22978,7 @@
         <v>364</v>
       </c>
       <c r="B335" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C335" t="n">
         <v>43.0</v>
@@ -23001,7 +22998,7 @@
         <v>365</v>
       </c>
       <c r="B336" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C336" t="n">
         <v>326.0</v>
@@ -23021,7 +23018,7 @@
         <v>366</v>
       </c>
       <c r="B337" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C337" t="n">
         <v>365.0</v>
@@ -23041,7 +23038,7 @@
         <v>367</v>
       </c>
       <c r="B338" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C338" t="n">
         <v>11.0</v>
@@ -23061,7 +23058,7 @@
         <v>368</v>
       </c>
       <c r="B339" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C339" t="n">
         <v>66.0</v>
@@ -23081,7 +23078,7 @@
         <v>369</v>
       </c>
       <c r="B340" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C340" t="n">
         <v>192.0</v>
@@ -23101,7 +23098,7 @@
         <v>370</v>
       </c>
       <c r="B341" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C341" t="n">
         <v>249.0</v>
@@ -23121,7 +23118,7 @@
         <v>371</v>
       </c>
       <c r="B342" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C342" t="n">
         <v>88.0</v>
@@ -23141,7 +23138,7 @@
         <v>372</v>
       </c>
       <c r="B343" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C343" t="n">
         <v>304.0</v>
@@ -23161,7 +23158,7 @@
         <v>373</v>
       </c>
       <c r="B344" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C344" t="n">
         <v>176.0</v>
@@ -23181,7 +23178,7 @@
         <v>374</v>
       </c>
       <c r="B345" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C345" t="n">
         <v>168.0</v>
@@ -23201,7 +23198,7 @@
         <v>375</v>
       </c>
       <c r="B346" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C346" t="n">
         <v>301.0</v>
@@ -23221,7 +23218,7 @@
         <v>376</v>
       </c>
       <c r="B347" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C347"/>
       <c r="D347"/>
@@ -23233,7 +23230,7 @@
         <v>377</v>
       </c>
       <c r="B348" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C348" t="n">
         <v>47.0</v>
@@ -23253,7 +23250,7 @@
         <v>378</v>
       </c>
       <c r="B349" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C349" t="n">
         <v>438.0</v>
@@ -23273,7 +23270,7 @@
         <v>379</v>
       </c>
       <c r="B350" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C350" t="n">
         <v>359.0</v>
@@ -23293,7 +23290,7 @@
         <v>380</v>
       </c>
       <c r="B351" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C351" t="n">
         <v>84.0</v>
@@ -23313,7 +23310,7 @@
         <v>381</v>
       </c>
       <c r="B352" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C352" t="n">
         <v>265.0</v>
@@ -23333,7 +23330,7 @@
         <v>382</v>
       </c>
       <c r="B353" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C353" t="n">
         <v>211.0</v>
@@ -23353,7 +23350,7 @@
         <v>383</v>
       </c>
       <c r="B354" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C354" t="n">
         <v>135.0</v>
@@ -23373,7 +23370,7 @@
         <v>384</v>
       </c>
       <c r="B355" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C355" t="n">
         <v>206.0</v>
@@ -23393,7 +23390,7 @@
         <v>385</v>
       </c>
       <c r="B356" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C356" t="n">
         <v>240.0</v>
@@ -23413,7 +23410,7 @@
         <v>386</v>
       </c>
       <c r="B357" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C357" t="n">
         <v>92.0</v>
@@ -23433,7 +23430,7 @@
         <v>387</v>
       </c>
       <c r="B358" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C358" t="n">
         <v>70.0</v>
@@ -23453,7 +23450,7 @@
         <v>388</v>
       </c>
       <c r="B359" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C359" t="n">
         <v>258.0</v>
@@ -23473,7 +23470,7 @@
         <v>389</v>
       </c>
       <c r="B360" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C360" t="n">
         <v>181.0</v>
@@ -23493,7 +23490,7 @@
         <v>390</v>
       </c>
       <c r="B361" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C361" t="n">
         <v>251.0</v>
@@ -23513,7 +23510,7 @@
         <v>391</v>
       </c>
       <c r="B362" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C362"/>
       <c r="D362"/>
@@ -23525,7 +23522,7 @@
         <v>392</v>
       </c>
       <c r="B363" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C363" t="n">
         <v>164.0</v>
@@ -23545,7 +23542,7 @@
         <v>393</v>
       </c>
       <c r="B364" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C364" t="n">
         <v>127.0</v>
@@ -23565,7 +23562,7 @@
         <v>394</v>
       </c>
       <c r="B365" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C365" t="n">
         <v>115.0</v>
@@ -23585,7 +23582,7 @@
         <v>395</v>
       </c>
       <c r="B366" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C366" t="n">
         <v>361.0</v>
@@ -23605,7 +23602,7 @@
         <v>396</v>
       </c>
       <c r="B367" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C367" t="n">
         <v>50.0</v>
@@ -23625,7 +23622,7 @@
         <v>397</v>
       </c>
       <c r="B368" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C368" t="n">
         <v>42.0</v>
@@ -23645,7 +23642,7 @@
         <v>398</v>
       </c>
       <c r="B369" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C369" t="n">
         <v>287.0</v>
@@ -23665,7 +23662,7 @@
         <v>399</v>
       </c>
       <c r="B370" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C370" t="n">
         <v>89.0</v>
@@ -23685,7 +23682,7 @@
         <v>400</v>
       </c>
       <c r="B371" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C371" t="n">
         <v>316.0</v>
@@ -23705,7 +23702,7 @@
         <v>401</v>
       </c>
       <c r="B372" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C372" t="n">
         <v>94.0</v>
@@ -23725,7 +23722,7 @@
         <v>402</v>
       </c>
       <c r="B373" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C373" t="n">
         <v>188.0</v>
@@ -23745,7 +23742,7 @@
         <v>403</v>
       </c>
       <c r="B374" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C374" t="n">
         <v>212.0</v>
@@ -23765,7 +23762,7 @@
         <v>404</v>
       </c>
       <c r="B375" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C375" t="n">
         <v>52.0</v>
@@ -23785,7 +23782,7 @@
         <v>405</v>
       </c>
       <c r="B376" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C376" t="n">
         <v>350.0</v>
@@ -23805,7 +23802,7 @@
         <v>406</v>
       </c>
       <c r="B377" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C377" t="n">
         <v>346.0</v>
@@ -23825,7 +23822,7 @@
         <v>407</v>
       </c>
       <c r="B378" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C378" t="n">
         <v>343.0</v>
@@ -23845,7 +23842,7 @@
         <v>408</v>
       </c>
       <c r="B379" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C379" t="n">
         <v>161.0</v>
@@ -23865,7 +23862,7 @@
         <v>409</v>
       </c>
       <c r="B380" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C380" t="n">
         <v>125.0</v>
@@ -23885,7 +23882,7 @@
         <v>410</v>
       </c>
       <c r="B381" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C381" t="n">
         <v>104.0</v>
@@ -23905,7 +23902,7 @@
         <v>411</v>
       </c>
       <c r="B382" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C382" t="n">
         <v>108.0</v>
@@ -23925,7 +23922,7 @@
         <v>412</v>
       </c>
       <c r="B383" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C383" t="n">
         <v>318.0</v>
@@ -23945,7 +23942,7 @@
         <v>413</v>
       </c>
       <c r="B384" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C384" t="n">
         <v>446.0</v>
@@ -23965,7 +23962,7 @@
         <v>414</v>
       </c>
       <c r="B385" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C385" t="n">
         <v>450.0</v>
@@ -23985,7 +23982,7 @@
         <v>415</v>
       </c>
       <c r="B386" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C386" t="n">
         <v>445.0</v>
@@ -24005,7 +24002,7 @@
         <v>416</v>
       </c>
       <c r="B387" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C387" t="n">
         <v>487.0</v>
@@ -24025,7 +24022,7 @@
         <v>417</v>
       </c>
       <c r="B388" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C388" t="n">
         <v>441.0</v>
@@ -24045,7 +24042,7 @@
         <v>418</v>
       </c>
       <c r="B389" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C389" t="n">
         <v>497.0</v>
@@ -24065,7 +24062,7 @@
         <v>419</v>
       </c>
       <c r="B390" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C390" t="n">
         <v>153.0</v>
@@ -24085,7 +24082,7 @@
         <v>420</v>
       </c>
       <c r="B391" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C391" t="n">
         <v>337.0</v>
@@ -24105,7 +24102,7 @@
         <v>421</v>
       </c>
       <c r="B392" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C392" t="n">
         <v>382.0</v>
@@ -24125,7 +24122,7 @@
         <v>422</v>
       </c>
       <c r="B393" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C393" t="n">
         <v>208.0</v>
@@ -24145,7 +24142,7 @@
         <v>423</v>
       </c>
       <c r="B394" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C394" t="n">
         <v>156.0</v>
@@ -24165,7 +24162,7 @@
         <v>424</v>
       </c>
       <c r="B395" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C395" t="n">
         <v>282.0</v>
@@ -24185,7 +24182,7 @@
         <v>425</v>
       </c>
       <c r="B396" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C396" t="n">
         <v>149.0</v>
@@ -24205,7 +24202,7 @@
         <v>426</v>
       </c>
       <c r="B397" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C397" t="n">
         <v>1.0</v>
@@ -24225,7 +24222,7 @@
         <v>427</v>
       </c>
       <c r="B398" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C398" t="n">
         <v>15.0</v>
@@ -24245,7 +24242,7 @@
         <v>428</v>
       </c>
       <c r="B399" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C399" t="n">
         <v>103.0</v>
@@ -24265,7 +24262,7 @@
         <v>429</v>
       </c>
       <c r="B400" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C400" t="n">
         <v>4.0</v>
@@ -24285,7 +24282,7 @@
         <v>430</v>
       </c>
       <c r="B401" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C401" t="n">
         <v>6.0</v>
@@ -24305,7 +24302,7 @@
         <v>431</v>
       </c>
       <c r="B402" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C402" t="n">
         <v>124.0</v>
@@ -24325,7 +24322,7 @@
         <v>432</v>
       </c>
       <c r="B403" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C403" t="n">
         <v>133.0</v>
@@ -24345,7 +24342,7 @@
         <v>433</v>
       </c>
       <c r="B404" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C404" t="n">
         <v>5.0</v>
@@ -24365,7 +24362,7 @@
         <v>434</v>
       </c>
       <c r="B405" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C405" t="n">
         <v>389.0</v>
@@ -24385,7 +24382,7 @@
         <v>435</v>
       </c>
       <c r="B406" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C406" t="n">
         <v>8.0</v>
@@ -24405,7 +24402,7 @@
         <v>436</v>
       </c>
       <c r="B407" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C407" t="n">
         <v>216.0</v>
@@ -24425,7 +24422,7 @@
         <v>437</v>
       </c>
       <c r="B408" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C408" t="n">
         <v>150.0</v>
@@ -24445,7 +24442,7 @@
         <v>438</v>
       </c>
       <c r="B409" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C409" t="n">
         <v>191.0</v>
@@ -24465,7 +24462,7 @@
         <v>439</v>
       </c>
       <c r="B410" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C410" t="n">
         <v>186.0</v>
@@ -24485,7 +24482,7 @@
         <v>440</v>
       </c>
       <c r="B411" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C411" t="n">
         <v>136.0</v>
@@ -24505,7 +24502,7 @@
         <v>441</v>
       </c>
       <c r="B412" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C412" t="n">
         <v>140.0</v>
@@ -24525,7 +24522,7 @@
         <v>442</v>
       </c>
       <c r="B413" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C413" t="n">
         <v>116.0</v>
@@ -24545,7 +24542,7 @@
         <v>443</v>
       </c>
       <c r="B414" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C414" t="n">
         <v>236.0</v>
@@ -24565,7 +24562,7 @@
         <v>444</v>
       </c>
       <c r="B415" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C415" t="n">
         <v>363.0</v>
@@ -24585,7 +24582,7 @@
         <v>445</v>
       </c>
       <c r="B416" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C416" t="n">
         <v>404.0</v>
@@ -24605,7 +24602,7 @@
         <v>446</v>
       </c>
       <c r="B417" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C417" t="n">
         <v>351.0</v>
@@ -24625,7 +24622,7 @@
         <v>447</v>
       </c>
       <c r="B418" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C418" t="n">
         <v>246.0</v>
@@ -24645,7 +24642,7 @@
         <v>448</v>
       </c>
       <c r="B419" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C419" t="n">
         <v>219.0</v>
@@ -24665,7 +24662,7 @@
         <v>449</v>
       </c>
       <c r="B420" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C420" t="n">
         <v>319.0</v>
@@ -24685,7 +24682,7 @@
         <v>450</v>
       </c>
       <c r="B421" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C421" t="n">
         <v>99.0</v>
@@ -24705,7 +24702,7 @@
         <v>451</v>
       </c>
       <c r="B422" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C422" t="n">
         <v>261.0</v>
@@ -24725,7 +24722,7 @@
         <v>452</v>
       </c>
       <c r="B423" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C423" t="n">
         <v>289.0</v>
@@ -24745,7 +24742,7 @@
         <v>453</v>
       </c>
       <c r="B424" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C424" t="n">
         <v>262.0</v>
@@ -24765,7 +24762,7 @@
         <v>454</v>
       </c>
       <c r="B425" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C425" t="n">
         <v>307.0</v>
@@ -24785,7 +24782,7 @@
         <v>455</v>
       </c>
       <c r="B426" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C426" t="n">
         <v>305.0</v>
@@ -24805,7 +24802,7 @@
         <v>456</v>
       </c>
       <c r="B427" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C427" t="n">
         <v>299.0</v>
@@ -24825,7 +24822,7 @@
         <v>457</v>
       </c>
       <c r="B428" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C428" t="n">
         <v>270.0</v>
@@ -24845,7 +24842,7 @@
         <v>458</v>
       </c>
       <c r="B429" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C429" t="n">
         <v>203.0</v>
@@ -24865,7 +24862,7 @@
         <v>459</v>
       </c>
       <c r="B430" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C430" t="n">
         <v>295.0</v>
@@ -24885,7 +24882,7 @@
         <v>460</v>
       </c>
       <c r="B431" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C431" t="n">
         <v>407.0</v>
@@ -24905,7 +24902,7 @@
         <v>461</v>
       </c>
       <c r="B432" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C432" t="n">
         <v>314.0</v>
@@ -24925,7 +24922,7 @@
         <v>462</v>
       </c>
       <c r="B433" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C433" t="n">
         <v>366.0</v>
@@ -24945,7 +24942,7 @@
         <v>463</v>
       </c>
       <c r="B434" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C434" t="n">
         <v>179.0</v>
@@ -24965,7 +24962,7 @@
         <v>464</v>
       </c>
       <c r="B435" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C435" t="n">
         <v>378.0</v>
@@ -24985,7 +24982,7 @@
         <v>465</v>
       </c>
       <c r="B436" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C436" t="n">
         <v>408.0</v>
@@ -25005,7 +25002,7 @@
         <v>466</v>
       </c>
       <c r="B437" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C437" t="n">
         <v>180.0</v>
@@ -25025,7 +25022,7 @@
         <v>467</v>
       </c>
       <c r="B438" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C438" t="n">
         <v>273.0</v>
@@ -25045,7 +25042,7 @@
         <v>468</v>
       </c>
       <c r="B439" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C439" t="n">
         <v>253.0</v>
@@ -25065,7 +25062,7 @@
         <v>469</v>
       </c>
       <c r="B440" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C440" t="n">
         <v>256.0</v>
@@ -25085,7 +25082,7 @@
         <v>470</v>
       </c>
       <c r="B441" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C441" t="n">
         <v>279.0</v>
@@ -25105,7 +25102,7 @@
         <v>471</v>
       </c>
       <c r="B442" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C442" t="n">
         <v>332.0</v>
@@ -25125,7 +25122,7 @@
         <v>472</v>
       </c>
       <c r="B443" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C443" t="n">
         <v>275.0</v>
@@ -25145,7 +25142,7 @@
         <v>473</v>
       </c>
       <c r="B444" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C444" t="n">
         <v>327.0</v>
@@ -25165,7 +25162,7 @@
         <v>474</v>
       </c>
       <c r="B445" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C445" t="n">
         <v>285.0</v>
@@ -25185,7 +25182,7 @@
         <v>475</v>
       </c>
       <c r="B446" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C446" t="n">
         <v>142.0</v>
@@ -25205,7 +25202,7 @@
         <v>476</v>
       </c>
       <c r="B447" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C447" t="n">
         <v>263.0</v>
@@ -25225,7 +25222,7 @@
         <v>477</v>
       </c>
       <c r="B448" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C448" t="n">
         <v>357.0</v>
@@ -25245,7 +25242,7 @@
         <v>478</v>
       </c>
       <c r="B449" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C449" t="n">
         <v>172.0</v>
@@ -25265,7 +25262,7 @@
         <v>479</v>
       </c>
       <c r="B450" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C450" t="n">
         <v>77.0</v>
@@ -25285,7 +25282,7 @@
         <v>480</v>
       </c>
       <c r="B451" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C451" t="n">
         <v>59.0</v>
@@ -25305,7 +25302,7 @@
         <v>481</v>
       </c>
       <c r="B452" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C452" t="n">
         <v>283.0</v>
@@ -25325,7 +25322,7 @@
         <v>482</v>
       </c>
       <c r="B453" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C453" t="n">
         <v>432.0</v>
@@ -25345,7 +25342,7 @@
         <v>483</v>
       </c>
       <c r="B454" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C454" t="n">
         <v>232.0</v>
@@ -25365,7 +25362,7 @@
         <v>484</v>
       </c>
       <c r="B455" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C455" t="n">
         <v>451.0</v>
@@ -25385,7 +25382,7 @@
         <v>485</v>
       </c>
       <c r="B456" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C456" t="n">
         <v>63.0</v>
@@ -25405,7 +25402,7 @@
         <v>486</v>
       </c>
       <c r="B457" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C457" t="n">
         <v>101.0</v>
@@ -25425,7 +25422,7 @@
         <v>487</v>
       </c>
       <c r="B458" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C458" t="n">
         <v>364.0</v>
@@ -25445,7 +25442,7 @@
         <v>488</v>
       </c>
       <c r="B459" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C459" t="n">
         <v>158.0</v>
@@ -25465,7 +25462,7 @@
         <v>489</v>
       </c>
       <c r="B460" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C460" t="n">
         <v>396.0</v>
@@ -25485,7 +25482,7 @@
         <v>490</v>
       </c>
       <c r="B461" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C461" t="n">
         <v>298.0</v>
@@ -25505,7 +25502,7 @@
         <v>491</v>
       </c>
       <c r="B462" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C462" t="n">
         <v>54.0</v>
@@ -25525,7 +25522,7 @@
         <v>492</v>
       </c>
       <c r="B463" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C463" t="n">
         <v>102.0</v>
@@ -25545,7 +25542,7 @@
         <v>493</v>
       </c>
       <c r="B464" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C464" t="n">
         <v>169.0</v>
@@ -25565,7 +25562,7 @@
         <v>494</v>
       </c>
       <c r="B465" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C465" t="n">
         <v>57.0</v>
@@ -25585,7 +25582,7 @@
         <v>495</v>
       </c>
       <c r="B466" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C466" t="n">
         <v>159.0</v>
@@ -25605,7 +25602,7 @@
         <v>496</v>
       </c>
       <c r="B467" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C467" t="n">
         <v>62.0</v>
@@ -25625,7 +25622,7 @@
         <v>497</v>
       </c>
       <c r="B468" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C468" t="n">
         <v>165.0</v>
@@ -25645,7 +25642,7 @@
         <v>498</v>
       </c>
       <c r="B469" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C469" t="n">
         <v>3.0</v>
@@ -25665,7 +25662,7 @@
         <v>499</v>
       </c>
       <c r="B470" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C470" t="n">
         <v>144.0</v>
@@ -25685,7 +25682,7 @@
         <v>500</v>
       </c>
       <c r="B471" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C471" t="n">
         <v>437.0</v>
@@ -25705,7 +25702,7 @@
         <v>501</v>
       </c>
       <c r="B472" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C472" t="n">
         <v>331.0</v>
@@ -25725,7 +25722,7 @@
         <v>502</v>
       </c>
       <c r="B473" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C473" t="n">
         <v>385.0</v>
@@ -25745,7 +25742,7 @@
         <v>503</v>
       </c>
       <c r="B474" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C474" t="n">
         <v>85.0</v>
@@ -25765,7 +25762,7 @@
         <v>504</v>
       </c>
       <c r="B475" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C475" t="n">
         <v>160.0</v>
@@ -25785,7 +25782,7 @@
         <v>505</v>
       </c>
       <c r="B476" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C476" t="n">
         <v>268.0</v>
@@ -25805,7 +25802,7 @@
         <v>506</v>
       </c>
       <c r="B477" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C477" t="n">
         <v>443.0</v>
@@ -25825,7 +25822,7 @@
         <v>507</v>
       </c>
       <c r="B478" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C478" t="n">
         <v>75.0</v>
@@ -25845,7 +25842,7 @@
         <v>508</v>
       </c>
       <c r="B479" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C479" t="n">
         <v>68.0</v>
@@ -25865,7 +25862,7 @@
         <v>509</v>
       </c>
       <c r="B480" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C480" t="n">
         <v>46.0</v>
@@ -25885,7 +25882,7 @@
         <v>510</v>
       </c>
       <c r="B481" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C481" t="n">
         <v>174.0</v>
@@ -25905,7 +25902,7 @@
         <v>511</v>
       </c>
       <c r="B482" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C482" t="n">
         <v>143.0</v>
@@ -25925,7 +25922,7 @@
         <v>512</v>
       </c>
       <c r="B483" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C483" t="n">
         <v>106.0</v>
@@ -25945,7 +25942,7 @@
         <v>513</v>
       </c>
       <c r="B484" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C484" t="n">
         <v>60.0</v>
@@ -25965,7 +25962,7 @@
         <v>514</v>
       </c>
       <c r="B485" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C485" t="n">
         <v>278.0</v>
@@ -25985,7 +25982,7 @@
         <v>515</v>
       </c>
       <c r="B486" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C486" t="n">
         <v>154.0</v>
@@ -26005,7 +26002,7 @@
         <v>516</v>
       </c>
       <c r="B487" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C487" t="n">
         <v>311.0</v>
@@ -26025,7 +26022,7 @@
         <v>517</v>
       </c>
       <c r="B488" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C488" t="n">
         <v>234.0</v>
@@ -26045,7 +26042,7 @@
         <v>518</v>
       </c>
       <c r="B489" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C489" t="n">
         <v>163.0</v>
@@ -26065,7 +26062,7 @@
         <v>519</v>
       </c>
       <c r="B490" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C490" t="n">
         <v>391.0</v>
@@ -26085,7 +26082,7 @@
         <v>520</v>
       </c>
       <c r="B491" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C491" t="n">
         <v>205.0</v>
@@ -26105,7 +26102,7 @@
         <v>521</v>
       </c>
       <c r="B492" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C492" t="n">
         <v>252.0</v>
@@ -26125,7 +26122,7 @@
         <v>522</v>
       </c>
       <c r="B493" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C493" t="n">
         <v>393.0</v>
@@ -26145,7 +26142,7 @@
         <v>523</v>
       </c>
       <c r="B494" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C494" t="n">
         <v>109.0</v>
@@ -26165,7 +26162,7 @@
         <v>524</v>
       </c>
       <c r="B495" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C495" t="n">
         <v>90.0</v>
@@ -26185,7 +26182,7 @@
         <v>525</v>
       </c>
       <c r="B496" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C496" t="n">
         <v>200.0</v>
@@ -26205,7 +26202,7 @@
         <v>526</v>
       </c>
       <c r="B497" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C497" t="n">
         <v>178.0</v>
@@ -26225,7 +26222,7 @@
         <v>527</v>
       </c>
       <c r="B498" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C498" t="n">
         <v>17.0</v>
@@ -26245,7 +26242,7 @@
         <v>528</v>
       </c>
       <c r="B499" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C499" t="n">
         <v>117.0</v>
@@ -26265,7 +26262,7 @@
         <v>529</v>
       </c>
       <c r="B500" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C500" t="n">
         <v>61.0</v>
@@ -26285,7 +26282,7 @@
         <v>530</v>
       </c>
       <c r="B501" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C501" t="n">
         <v>111.0</v>
@@ -26305,7 +26302,7 @@
         <v>531</v>
       </c>
       <c r="B502" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C502" t="n">
         <v>79.0</v>
@@ -26325,7 +26322,7 @@
         <v>532</v>
       </c>
       <c r="B503" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C503" t="n">
         <v>81.0</v>
@@ -26345,7 +26342,7 @@
         <v>533</v>
       </c>
       <c r="B504" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C504" t="n">
         <v>34.0</v>
@@ -26365,7 +26362,7 @@
         <v>534</v>
       </c>
       <c r="B505" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C505" t="n">
         <v>38.0</v>
@@ -26385,7 +26382,7 @@
         <v>535</v>
       </c>
       <c r="B506" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C506" t="n">
         <v>67.0</v>
@@ -26405,7 +26402,7 @@
         <v>536</v>
       </c>
       <c r="B507" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C507" t="n">
         <v>26.0</v>
@@ -26425,7 +26422,7 @@
         <v>537</v>
       </c>
       <c r="B508" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C508" t="n">
         <v>95.0</v>
@@ -26445,7 +26442,7 @@
         <v>538</v>
       </c>
       <c r="B509" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C509" t="n">
         <v>22.0</v>
@@ -26465,7 +26462,7 @@
         <v>539</v>
       </c>
       <c r="B510" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C510" t="n">
         <v>190.0</v>
@@ -26485,7 +26482,7 @@
         <v>540</v>
       </c>
       <c r="B511" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C511" t="n">
         <v>87.0</v>
@@ -26505,7 +26502,7 @@
         <v>541</v>
       </c>
       <c r="B512" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C512" t="n">
         <v>23.0</v>
@@ -26525,7 +26522,7 @@
         <v>542</v>
       </c>
       <c r="B513" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C513"/>
       <c r="D513"/>
@@ -26537,7 +26534,7 @@
         <v>543</v>
       </c>
       <c r="B514" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C514" t="n">
         <v>32.0</v>
@@ -26557,7 +26554,7 @@
         <v>544</v>
       </c>
       <c r="B515" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C515" t="n">
         <v>37.0</v>
@@ -26577,7 +26574,7 @@
         <v>545</v>
       </c>
       <c r="B516" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C516" t="n">
         <v>93.0</v>
@@ -26597,7 +26594,7 @@
         <v>546</v>
       </c>
       <c r="B517" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C517" t="n">
         <v>138.0</v>
@@ -26617,7 +26614,7 @@
         <v>547</v>
       </c>
       <c r="B518" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C518" t="n">
         <v>80.0</v>
@@ -26637,7 +26634,7 @@
         <v>548</v>
       </c>
       <c r="B519" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C519" t="n">
         <v>123.0</v>
@@ -26657,7 +26654,7 @@
         <v>549</v>
       </c>
       <c r="B520" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C520" t="n">
         <v>257.0</v>
@@ -26677,7 +26674,7 @@
         <v>550</v>
       </c>
       <c r="B521" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C521" t="n">
         <v>82.0</v>
@@ -26697,7 +26694,7 @@
         <v>551</v>
       </c>
       <c r="B522" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C522" t="n">
         <v>71.0</v>
@@ -26717,7 +26714,7 @@
         <v>552</v>
       </c>
       <c r="B523" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C523" t="n">
         <v>49.0</v>
@@ -26737,7 +26734,7 @@
         <v>553</v>
       </c>
       <c r="B524" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C524" t="n">
         <v>110.0</v>
@@ -26757,7 +26754,7 @@
         <v>554</v>
       </c>
       <c r="B525" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C525" t="n">
         <v>41.0</v>
@@ -26777,7 +26774,7 @@
         <v>555</v>
       </c>
       <c r="B526" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C526" t="n">
         <v>25.0</v>
@@ -26797,7 +26794,7 @@
         <v>556</v>
       </c>
       <c r="B527" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C527" t="n">
         <v>28.0</v>
@@ -26817,7 +26814,7 @@
         <v>557</v>
       </c>
       <c r="B528" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C528" t="n">
         <v>45.0</v>
@@ -26837,7 +26834,7 @@
         <v>558</v>
       </c>
       <c r="B529" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C529" t="n">
         <v>167.0</v>
@@ -26870,10 +26867,10 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C1" t="s">
         <v>577</v>
-      </c>
-      <c r="C1" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="2">
@@ -26884,7 +26881,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="3">
@@ -26895,7 +26892,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="4">
@@ -26906,7 +26903,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5">
@@ -26917,7 +26914,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6">
@@ -26928,7 +26925,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7">
@@ -26939,7 +26936,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8">
@@ -26950,7 +26947,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9">
@@ -26961,7 +26958,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10">
@@ -26972,7 +26969,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="11">
@@ -26983,7 +26980,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="12">
@@ -26994,7 +26991,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="13">
@@ -27005,7 +27002,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14">
@@ -27016,7 +27013,7 @@
         <v>2.0</v>
       </c>
       <c r="C14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="15">
@@ -27027,7 +27024,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="16">
@@ -27038,7 +27035,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="17">
@@ -27049,7 +27046,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="18">
@@ -27060,7 +27057,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="19">
@@ -27071,7 +27068,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="20">
@@ -27082,7 +27079,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="21">
@@ -27093,7 +27090,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="22">
@@ -27104,7 +27101,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="23">
@@ -27115,7 +27112,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="24">
@@ -27126,7 +27123,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="25">
@@ -27137,7 +27134,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="26">
@@ -27148,7 +27145,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="27">
@@ -27159,7 +27156,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="28">
@@ -27170,7 +27167,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="29">
@@ -27181,7 +27178,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="30">
@@ -27192,7 +27189,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="31">
@@ -27203,7 +27200,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="32">
@@ -27214,7 +27211,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="33">
@@ -27225,7 +27222,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="34">
@@ -27236,7 +27233,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="35">
@@ -27247,7 +27244,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="36">
@@ -27258,7 +27255,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="37">
@@ -27269,7 +27266,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="38">
@@ -27280,7 +27277,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="39">
@@ -27291,7 +27288,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="40">
@@ -27302,7 +27299,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="41">
@@ -27313,7 +27310,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="42">
@@ -27324,7 +27321,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="43">
@@ -27335,7 +27332,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="44">
@@ -27346,7 +27343,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="45">
@@ -27357,7 +27354,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="46">
@@ -27368,7 +27365,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="47">
@@ -27379,7 +27376,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="48">
@@ -27390,7 +27387,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="49">
@@ -27401,7 +27398,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="50">
@@ -27412,7 +27409,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="51">
@@ -27423,7 +27420,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="52">
@@ -27434,7 +27431,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="53">
@@ -27445,7 +27442,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="54">
@@ -27456,7 +27453,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="55">
@@ -27467,7 +27464,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="56">
@@ -27478,7 +27475,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="57">
@@ -27489,7 +27486,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="58">
@@ -27500,7 +27497,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="59">
@@ -27511,7 +27508,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="60">
@@ -27522,7 +27519,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="61">
@@ -27533,7 +27530,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="62">
@@ -27544,7 +27541,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="63">
@@ -27555,7 +27552,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="64">
@@ -27566,7 +27563,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="65">
@@ -27577,7 +27574,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="66">
@@ -27588,7 +27585,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="67">
@@ -27599,7 +27596,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="68">
@@ -27610,7 +27607,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="69">
@@ -27621,7 +27618,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="70">
@@ -27632,7 +27629,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="71">
@@ -27643,7 +27640,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="72">
@@ -27654,7 +27651,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="73">
@@ -27665,7 +27662,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="74">
@@ -27676,7 +27673,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="75">
@@ -27687,7 +27684,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="76">
@@ -27698,7 +27695,7 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="77">
@@ -27709,7 +27706,7 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="78">
@@ -27720,7 +27717,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="79">
@@ -27731,7 +27728,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="80">
@@ -27742,7 +27739,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="81">
@@ -27753,7 +27750,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="82">
@@ -27764,7 +27761,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="83">
@@ -27775,7 +27772,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="84">
@@ -27786,7 +27783,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="85">
@@ -27797,7 +27794,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="86">
@@ -27808,7 +27805,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="87">
@@ -27819,7 +27816,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="88">
@@ -27830,7 +27827,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="89">
@@ -27841,7 +27838,7 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="90">
@@ -27852,7 +27849,7 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="91">
@@ -27863,7 +27860,7 @@
         <v>0.0</v>
       </c>
       <c r="C91" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="92">
@@ -27874,7 +27871,7 @@
         <v>0.0</v>
       </c>
       <c r="C92" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="93">
@@ -27885,7 +27882,7 @@
         <v>0.0</v>
       </c>
       <c r="C93" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="94">
@@ -27896,7 +27893,7 @@
         <v>0.0</v>
       </c>
       <c r="C94" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="95">
@@ -27907,7 +27904,7 @@
         <v>0.0</v>
       </c>
       <c r="C95" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="96">
@@ -27918,7 +27915,7 @@
         <v>0.0</v>
       </c>
       <c r="C96" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="97">
@@ -27929,7 +27926,7 @@
         <v>0.0</v>
       </c>
       <c r="C97" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="98">
@@ -27940,7 +27937,7 @@
         <v>0.0</v>
       </c>
       <c r="C98" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="99">
@@ -27951,7 +27948,7 @@
         <v>0.0</v>
       </c>
       <c r="C99" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="100">
@@ -27962,7 +27959,7 @@
         <v>1.0</v>
       </c>
       <c r="C100" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="101">
@@ -27973,7 +27970,7 @@
         <v>0.0</v>
       </c>
       <c r="C101" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="102">
@@ -27984,7 +27981,7 @@
         <v>0.0</v>
       </c>
       <c r="C102" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="103">
@@ -27995,7 +27992,7 @@
         <v>0.0</v>
       </c>
       <c r="C103" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="104">
@@ -28006,7 +28003,7 @@
         <v>0.0</v>
       </c>
       <c r="C104" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="105">
@@ -28017,7 +28014,7 @@
         <v>0.0</v>
       </c>
       <c r="C105" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="106">
@@ -28028,7 +28025,7 @@
         <v>0.0</v>
       </c>
       <c r="C106" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="107">
@@ -28039,7 +28036,7 @@
         <v>0.0</v>
       </c>
       <c r="C107" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="108">
@@ -28050,7 +28047,7 @@
         <v>0.0</v>
       </c>
       <c r="C108" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="109">
@@ -28061,7 +28058,7 @@
         <v>0.0</v>
       </c>
       <c r="C109" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="110">
@@ -28072,7 +28069,7 @@
         <v>0.0</v>
       </c>
       <c r="C110" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="111">
@@ -28083,7 +28080,7 @@
         <v>0.0</v>
       </c>
       <c r="C111" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="112">
@@ -28094,7 +28091,7 @@
         <v>0.0</v>
       </c>
       <c r="C112" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="113">
@@ -28105,7 +28102,7 @@
         <v>0.0</v>
       </c>
       <c r="C113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="114">
@@ -28116,7 +28113,7 @@
         <v>0.0</v>
       </c>
       <c r="C114" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="115">
@@ -28127,7 +28124,7 @@
         <v>0.0</v>
       </c>
       <c r="C115" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="116">
@@ -28138,7 +28135,7 @@
         <v>0.0</v>
       </c>
       <c r="C116" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="117">
@@ -28149,7 +28146,7 @@
         <v>0.0</v>
       </c>
       <c r="C117" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="118">
@@ -28160,7 +28157,7 @@
         <v>0.0</v>
       </c>
       <c r="C118" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="119">
@@ -28171,7 +28168,7 @@
         <v>0.0</v>
       </c>
       <c r="C119" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="120">
@@ -28182,7 +28179,7 @@
         <v>0.0</v>
       </c>
       <c r="C120" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="121">
@@ -28193,7 +28190,7 @@
         <v>0.0</v>
       </c>
       <c r="C121" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="122">
@@ -28204,7 +28201,7 @@
         <v>0.0</v>
       </c>
       <c r="C122" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="123">
@@ -28215,7 +28212,7 @@
         <v>0.0</v>
       </c>
       <c r="C123" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="124">
@@ -28226,7 +28223,7 @@
         <v>0.0</v>
       </c>
       <c r="C124" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="125">
@@ -28237,7 +28234,7 @@
         <v>0.0</v>
       </c>
       <c r="C125" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="126">
@@ -28248,7 +28245,7 @@
         <v>0.0</v>
       </c>
       <c r="C126" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="127">
@@ -28259,7 +28256,7 @@
         <v>0.0</v>
       </c>
       <c r="C127" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="128">
@@ -28270,7 +28267,7 @@
         <v>0.0</v>
       </c>
       <c r="C128" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="129">
@@ -28281,7 +28278,7 @@
         <v>0.0</v>
       </c>
       <c r="C129" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="130">
@@ -28292,7 +28289,7 @@
         <v>0.0</v>
       </c>
       <c r="C130" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="131">
@@ -28303,7 +28300,7 @@
         <v>0.0</v>
       </c>
       <c r="C131" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="132">
@@ -28314,7 +28311,7 @@
         <v>0.0</v>
       </c>
       <c r="C132" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="133">
@@ -28325,7 +28322,7 @@
         <v>0.0</v>
       </c>
       <c r="C133" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="134">
@@ -28336,7 +28333,7 @@
         <v>0.0</v>
       </c>
       <c r="C134" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="135">
@@ -28347,7 +28344,7 @@
         <v>0.0</v>
       </c>
       <c r="C135" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="136">
@@ -28358,7 +28355,7 @@
         <v>0.0</v>
       </c>
       <c r="C136" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="137">
@@ -28369,7 +28366,7 @@
         <v>0.0</v>
       </c>
       <c r="C137" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="138">
@@ -28380,7 +28377,7 @@
         <v>0.0</v>
       </c>
       <c r="C138" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="139">
@@ -28391,7 +28388,7 @@
         <v>2.0</v>
       </c>
       <c r="C139" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="140">
@@ -28402,7 +28399,7 @@
         <v>2.0</v>
       </c>
       <c r="C140" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="141">
@@ -28413,7 +28410,7 @@
         <v>2.0</v>
       </c>
       <c r="C141" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="142">
@@ -28424,7 +28421,7 @@
         <v>2.0</v>
       </c>
       <c r="C142" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="143">
@@ -28435,7 +28432,7 @@
         <v>2.0</v>
       </c>
       <c r="C143" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="144">
@@ -28446,7 +28443,7 @@
         <v>2.0</v>
       </c>
       <c r="C144" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="145">
@@ -28457,7 +28454,7 @@
         <v>2.0</v>
       </c>
       <c r="C145" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="146">
@@ -28468,7 +28465,7 @@
         <v>2.0</v>
       </c>
       <c r="C146" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="147">
@@ -28479,7 +28476,7 @@
         <v>2.0</v>
       </c>
       <c r="C147" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="148">
@@ -28490,7 +28487,7 @@
         <v>2.0</v>
       </c>
       <c r="C148" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="149">
@@ -28501,7 +28498,7 @@
         <v>2.0</v>
       </c>
       <c r="C149" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="150">
@@ -28512,7 +28509,7 @@
         <v>2.0</v>
       </c>
       <c r="C150" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="151">
@@ -28523,7 +28520,7 @@
         <v>2.0</v>
       </c>
       <c r="C151" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="152">
@@ -28534,7 +28531,7 @@
         <v>2.0</v>
       </c>
       <c r="C152" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="153">
@@ -28545,7 +28542,7 @@
         <v>2.0</v>
       </c>
       <c r="C153" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="154">
@@ -28556,7 +28553,7 @@
         <v>2.0</v>
       </c>
       <c r="C154" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="155">
@@ -28567,7 +28564,7 @@
         <v>2.0</v>
       </c>
       <c r="C155" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="156">
@@ -28578,7 +28575,7 @@
         <v>2.0</v>
       </c>
       <c r="C156" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="157">
@@ -28589,7 +28586,7 @@
         <v>2.0</v>
       </c>
       <c r="C157" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="158">
@@ -28600,7 +28597,7 @@
         <v>2.0</v>
       </c>
       <c r="C158" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="159">
@@ -28611,7 +28608,7 @@
         <v>2.0</v>
       </c>
       <c r="C159" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="160">
@@ -28622,7 +28619,7 @@
         <v>2.0</v>
       </c>
       <c r="C160" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="161">
@@ -28633,7 +28630,7 @@
         <v>2.0</v>
       </c>
       <c r="C161" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="162">
@@ -28644,7 +28641,7 @@
         <v>2.0</v>
       </c>
       <c r="C162" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="163">
@@ -28655,7 +28652,7 @@
         <v>2.0</v>
       </c>
       <c r="C163" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="164">
@@ -28666,7 +28663,7 @@
         <v>2.0</v>
       </c>
       <c r="C164" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="165">
@@ -28677,7 +28674,7 @@
         <v>2.0</v>
       </c>
       <c r="C165" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="166">
@@ -28688,7 +28685,7 @@
         <v>2.0</v>
       </c>
       <c r="C166" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="167">
@@ -28699,7 +28696,7 @@
         <v>2.0</v>
       </c>
       <c r="C167" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="168">
@@ -28710,7 +28707,7 @@
         <v>2.0</v>
       </c>
       <c r="C168" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="169">
@@ -28721,7 +28718,7 @@
         <v>2.0</v>
       </c>
       <c r="C169" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="170">
@@ -28732,7 +28729,7 @@
         <v>2.0</v>
       </c>
       <c r="C170" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="171">
@@ -28743,7 +28740,7 @@
         <v>2.0</v>
       </c>
       <c r="C171" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="172">
@@ -28754,7 +28751,7 @@
         <v>3.0</v>
       </c>
       <c r="C172" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="173">
@@ -28765,7 +28762,7 @@
         <v>2.0</v>
       </c>
       <c r="C173" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="174">
@@ -28776,7 +28773,7 @@
         <v>2.0</v>
       </c>
       <c r="C174" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="175">
@@ -28787,7 +28784,7 @@
         <v>2.0</v>
       </c>
       <c r="C175" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="176">
@@ -28798,7 +28795,7 @@
         <v>2.0</v>
       </c>
       <c r="C176" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="177">
@@ -28809,7 +28806,7 @@
         <v>2.0</v>
       </c>
       <c r="C177" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="178">
@@ -28820,7 +28817,7 @@
         <v>3.0</v>
       </c>
       <c r="C178" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="179">
@@ -28831,7 +28828,7 @@
         <v>2.0</v>
       </c>
       <c r="C179" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="180">
@@ -28842,7 +28839,7 @@
         <v>1.0</v>
       </c>
       <c r="C180" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="181">
@@ -28853,7 +28850,7 @@
         <v>1.0</v>
       </c>
       <c r="C181" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="182">
@@ -28864,7 +28861,7 @@
         <v>2.0</v>
       </c>
       <c r="C182" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="183">
@@ -28875,7 +28872,7 @@
         <v>1.0</v>
       </c>
       <c r="C183" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="184">
@@ -28886,7 +28883,7 @@
         <v>1.0</v>
       </c>
       <c r="C184" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="185">
@@ -28897,7 +28894,7 @@
         <v>1.0</v>
       </c>
       <c r="C185" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="186">
@@ -28908,7 +28905,7 @@
         <v>1.0</v>
       </c>
       <c r="C186" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="187">
@@ -28919,7 +28916,7 @@
         <v>1.0</v>
       </c>
       <c r="C187" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="188">
@@ -28930,7 +28927,7 @@
         <v>2.0</v>
       </c>
       <c r="C188" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="189">
@@ -28941,7 +28938,7 @@
         <v>2.0</v>
       </c>
       <c r="C189" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="190">
@@ -28952,7 +28949,7 @@
         <v>1.0</v>
       </c>
       <c r="C190" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="191">
@@ -28963,7 +28960,7 @@
         <v>2.0</v>
       </c>
       <c r="C191" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="192">
@@ -28974,7 +28971,7 @@
         <v>3.0</v>
       </c>
       <c r="C192" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="193">
@@ -28985,7 +28982,7 @@
         <v>2.0</v>
       </c>
       <c r="C193" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="194">
@@ -28996,7 +28993,7 @@
         <v>1.0</v>
       </c>
       <c r="C194" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="195">
@@ -29007,7 +29004,7 @@
         <v>1.0</v>
       </c>
       <c r="C195" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="196">
@@ -29018,7 +29015,7 @@
         <v>1.0</v>
       </c>
       <c r="C196" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="197">
@@ -29029,7 +29026,7 @@
         <v>1.0</v>
       </c>
       <c r="C197" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="198">
@@ -29040,7 +29037,7 @@
         <v>1.0</v>
       </c>
       <c r="C198" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="199">
@@ -29051,7 +29048,7 @@
         <v>1.0</v>
       </c>
       <c r="C199" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="200">
@@ -29062,7 +29059,7 @@
         <v>1.0</v>
       </c>
       <c r="C200" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="201">
@@ -29073,7 +29070,7 @@
         <v>1.0</v>
       </c>
       <c r="C201" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="202">
@@ -29084,7 +29081,7 @@
         <v>1.0</v>
       </c>
       <c r="C202" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="203">
@@ -29095,7 +29092,7 @@
         <v>1.0</v>
       </c>
       <c r="C203" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="204">
@@ -29106,7 +29103,7 @@
         <v>1.0</v>
       </c>
       <c r="C204" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="205">
@@ -29117,7 +29114,7 @@
         <v>1.0</v>
       </c>
       <c r="C205" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="206">
@@ -29128,7 +29125,7 @@
         <v>1.0</v>
       </c>
       <c r="C206" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="207">
@@ -29139,7 +29136,7 @@
         <v>1.0</v>
       </c>
       <c r="C207" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="208">
@@ -29150,7 +29147,7 @@
         <v>1.0</v>
       </c>
       <c r="C208" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="209">
@@ -29161,7 +29158,7 @@
         <v>1.0</v>
       </c>
       <c r="C209" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="210">
@@ -29172,7 +29169,7 @@
         <v>2.0</v>
       </c>
       <c r="C210" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="211">
@@ -29183,7 +29180,7 @@
         <v>1.0</v>
       </c>
       <c r="C211" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="212">
@@ -29194,7 +29191,7 @@
         <v>1.0</v>
       </c>
       <c r="C212" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="213">
@@ -29205,7 +29202,7 @@
         <v>2.0</v>
       </c>
       <c r="C213" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="214">
@@ -29216,7 +29213,7 @@
         <v>2.0</v>
       </c>
       <c r="C214" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="215">
@@ -29227,7 +29224,7 @@
         <v>2.0</v>
       </c>
       <c r="C215" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="216">
@@ -29238,7 +29235,7 @@
         <v>1.0</v>
       </c>
       <c r="C216" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="217">
@@ -29249,7 +29246,7 @@
         <v>1.0</v>
       </c>
       <c r="C217" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="218">
@@ -29260,7 +29257,7 @@
         <v>1.0</v>
       </c>
       <c r="C218" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="219">
@@ -29271,7 +29268,7 @@
         <v>1.0</v>
       </c>
       <c r="C219" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="220">
@@ -29282,7 +29279,7 @@
         <v>1.0</v>
       </c>
       <c r="C220" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="221">
@@ -29293,7 +29290,7 @@
         <v>1.0</v>
       </c>
       <c r="C221" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="222">
@@ -29304,7 +29301,7 @@
         <v>1.0</v>
       </c>
       <c r="C222" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="223">
@@ -29315,7 +29312,7 @@
         <v>1.0</v>
       </c>
       <c r="C223" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="224">
@@ -29326,7 +29323,7 @@
         <v>1.0</v>
       </c>
       <c r="C224" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="225">
@@ -29337,7 +29334,7 @@
         <v>0.0</v>
       </c>
       <c r="C225" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="226">
@@ -29348,7 +29345,7 @@
         <v>0.0</v>
       </c>
       <c r="C226" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="227">
@@ -29359,7 +29356,7 @@
         <v>0.0</v>
       </c>
       <c r="C227" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="228">
@@ -29370,7 +29367,7 @@
         <v>0.0</v>
       </c>
       <c r="C228" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="229">
@@ -29381,7 +29378,7 @@
         <v>0.0</v>
       </c>
       <c r="C229" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="230">
@@ -29392,7 +29389,7 @@
         <v>0.0</v>
       </c>
       <c r="C230" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="231">
@@ -29403,7 +29400,7 @@
         <v>0.0</v>
       </c>
       <c r="C231" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="232">
@@ -29414,7 +29411,7 @@
         <v>0.0</v>
       </c>
       <c r="C232" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="233">
@@ -29425,7 +29422,7 @@
         <v>0.0</v>
       </c>
       <c r="C233" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="234">
@@ -29436,7 +29433,7 @@
         <v>0.0</v>
       </c>
       <c r="C234" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="235">
@@ -29447,7 +29444,7 @@
         <v>0.0</v>
       </c>
       <c r="C235" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="236">
@@ -29458,7 +29455,7 @@
         <v>0.0</v>
       </c>
       <c r="C236" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="237">
@@ -29469,7 +29466,7 @@
         <v>0.0</v>
       </c>
       <c r="C237" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="238">
@@ -29480,7 +29477,7 @@
         <v>0.0</v>
       </c>
       <c r="C238" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="239">
@@ -29491,7 +29488,7 @@
         <v>0.0</v>
       </c>
       <c r="C239" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="240">
@@ -29502,7 +29499,7 @@
         <v>0.0</v>
       </c>
       <c r="C240" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="241">
@@ -29513,7 +29510,7 @@
         <v>0.0</v>
       </c>
       <c r="C241" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="242">
@@ -29524,7 +29521,7 @@
         <v>1.0</v>
       </c>
       <c r="C242" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="243">
@@ -29535,7 +29532,7 @@
         <v>0.0</v>
       </c>
       <c r="C243" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="244">
@@ -29546,7 +29543,7 @@
         <v>0.0</v>
       </c>
       <c r="C244" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="245">
@@ -29557,7 +29554,7 @@
         <v>0.0</v>
       </c>
       <c r="C245" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="246">
@@ -29568,7 +29565,7 @@
         <v>0.0</v>
       </c>
       <c r="C246" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="247">
@@ -29579,7 +29576,7 @@
         <v>0.0</v>
       </c>
       <c r="C247" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="248">
@@ -29590,7 +29587,7 @@
         <v>0.0</v>
       </c>
       <c r="C248" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="249">
@@ -29601,7 +29598,7 @@
         <v>0.0</v>
       </c>
       <c r="C249" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="250">
@@ -29612,7 +29609,7 @@
         <v>0.0</v>
       </c>
       <c r="C250" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="251">
@@ -29623,7 +29620,7 @@
         <v>0.0</v>
       </c>
       <c r="C251" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="252">
@@ -29634,7 +29631,7 @@
         <v>0.0</v>
       </c>
       <c r="C252" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="253">
@@ -29645,7 +29642,7 @@
         <v>0.0</v>
       </c>
       <c r="C253" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="254">
@@ -29656,7 +29653,7 @@
         <v>0.0</v>
       </c>
       <c r="C254" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="255">
@@ -29667,7 +29664,7 @@
         <v>0.0</v>
       </c>
       <c r="C255" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="256">
@@ -29678,7 +29675,7 @@
         <v>0.0</v>
       </c>
       <c r="C256" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="257">
@@ -29689,7 +29686,7 @@
         <v>0.0</v>
       </c>
       <c r="C257" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="258">
@@ -29700,7 +29697,7 @@
         <v>0.0</v>
       </c>
       <c r="C258" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="259">
@@ -29711,7 +29708,7 @@
         <v>0.0</v>
       </c>
       <c r="C259" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="260">
@@ -29722,7 +29719,7 @@
         <v>0.0</v>
       </c>
       <c r="C260" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="261">
@@ -29733,7 +29730,7 @@
         <v>0.0</v>
       </c>
       <c r="C261" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="262">
@@ -29744,7 +29741,7 @@
         <v>0.0</v>
       </c>
       <c r="C262" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="263">
@@ -29755,7 +29752,7 @@
         <v>0.0</v>
       </c>
       <c r="C263" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="264">
@@ -29766,7 +29763,7 @@
         <v>0.0</v>
       </c>
       <c r="C264" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="265">
@@ -29777,7 +29774,7 @@
         <v>0.0</v>
       </c>
       <c r="C265" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="266">
@@ -29788,7 +29785,7 @@
         <v>0.0</v>
       </c>
       <c r="C266" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="267">
@@ -29799,7 +29796,7 @@
         <v>0.0</v>
       </c>
       <c r="C267" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="268">
@@ -29810,7 +29807,7 @@
         <v>0.0</v>
       </c>
       <c r="C268" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="269">
@@ -29821,7 +29818,7 @@
         <v>0.0</v>
       </c>
       <c r="C269" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="270">
@@ -29832,7 +29829,7 @@
         <v>0.0</v>
       </c>
       <c r="C270" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="271">
@@ -29843,7 +29840,7 @@
         <v>0.0</v>
       </c>
       <c r="C271" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="272">
@@ -29854,7 +29851,7 @@
         <v>0.0</v>
       </c>
       <c r="C272" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="273">
@@ -29865,7 +29862,7 @@
         <v>0.0</v>
       </c>
       <c r="C273" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="274">
@@ -29876,7 +29873,7 @@
         <v>0.0</v>
       </c>
       <c r="C274" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="275">
@@ -29887,7 +29884,7 @@
         <v>0.0</v>
       </c>
       <c r="C275" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="276">
@@ -29898,7 +29895,7 @@
         <v>0.0</v>
       </c>
       <c r="C276" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="277">
@@ -29909,7 +29906,7 @@
         <v>0.0</v>
       </c>
       <c r="C277" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="278">
@@ -29920,7 +29917,7 @@
         <v>0.0</v>
       </c>
       <c r="C278" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="279">
@@ -29931,7 +29928,7 @@
         <v>1.0</v>
       </c>
       <c r="C279" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="280">
@@ -29942,7 +29939,7 @@
         <v>1.0</v>
       </c>
       <c r="C280" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="281">
@@ -29953,7 +29950,7 @@
         <v>1.0</v>
       </c>
       <c r="C281" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="282">
@@ -29964,7 +29961,7 @@
         <v>1.0</v>
       </c>
       <c r="C282" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="283">
@@ -29975,7 +29972,7 @@
         <v>1.0</v>
       </c>
       <c r="C283" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="284">
@@ -29986,7 +29983,7 @@
         <v>1.0</v>
       </c>
       <c r="C284" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="285">
@@ -29997,7 +29994,7 @@
         <v>0.0</v>
       </c>
       <c r="C285" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="286">
@@ -30008,7 +30005,7 @@
         <v>0.0</v>
       </c>
       <c r="C286" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="287">
@@ -30019,7 +30016,7 @@
         <v>0.0</v>
       </c>
       <c r="C287" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="288">
@@ -30030,7 +30027,7 @@
         <v>0.0</v>
       </c>
       <c r="C288" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="289">
@@ -30041,7 +30038,7 @@
         <v>0.0</v>
       </c>
       <c r="C289" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="290">
@@ -30052,7 +30049,7 @@
         <v>0.0</v>
       </c>
       <c r="C290" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="291">
@@ -30063,7 +30060,7 @@
         <v>0.0</v>
       </c>
       <c r="C291" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="292">
@@ -30074,7 +30071,7 @@
         <v>0.0</v>
       </c>
       <c r="C292" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="293">
@@ -30085,7 +30082,7 @@
         <v>0.0</v>
       </c>
       <c r="C293" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="294">
@@ -30096,7 +30093,7 @@
         <v>0.0</v>
       </c>
       <c r="C294" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="295">
@@ -30107,7 +30104,7 @@
         <v>0.0</v>
       </c>
       <c r="C295" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="296">
@@ -30118,7 +30115,7 @@
         <v>0.0</v>
       </c>
       <c r="C296" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="297">
@@ -30129,7 +30126,7 @@
         <v>0.0</v>
       </c>
       <c r="C297" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="298">
@@ -30140,7 +30137,7 @@
         <v>0.0</v>
       </c>
       <c r="C298" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="299">
@@ -30151,7 +30148,7 @@
         <v>0.0</v>
       </c>
       <c r="C299" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="300">
@@ -30162,7 +30159,7 @@
         <v>0.0</v>
       </c>
       <c r="C300" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="301">
@@ -30173,7 +30170,7 @@
         <v>0.0</v>
       </c>
       <c r="C301" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="302">
@@ -30184,7 +30181,7 @@
         <v>0.0</v>
       </c>
       <c r="C302" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="303">
@@ -30195,7 +30192,7 @@
         <v>0.0</v>
       </c>
       <c r="C303" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="304">
@@ -30206,7 +30203,7 @@
         <v>0.0</v>
       </c>
       <c r="C304" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="305">
@@ -30217,7 +30214,7 @@
         <v>0.0</v>
       </c>
       <c r="C305" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="306">
@@ -30228,7 +30225,7 @@
         <v>0.0</v>
       </c>
       <c r="C306" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="307">
@@ -30239,7 +30236,7 @@
         <v>1.0</v>
       </c>
       <c r="C307" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="308">
@@ -30250,7 +30247,7 @@
         <v>0.0</v>
       </c>
       <c r="C308" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="309">
@@ -30261,7 +30258,7 @@
         <v>0.0</v>
       </c>
       <c r="C309" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="310">
@@ -30272,7 +30269,7 @@
         <v>0.0</v>
       </c>
       <c r="C310" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="311">
@@ -30283,7 +30280,7 @@
         <v>0.0</v>
       </c>
       <c r="C311" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="312">
@@ -30294,7 +30291,7 @@
         <v>0.0</v>
       </c>
       <c r="C312" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="313">
@@ -30305,7 +30302,7 @@
         <v>0.0</v>
       </c>
       <c r="C313" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="314">
@@ -30316,7 +30313,7 @@
         <v>0.0</v>
       </c>
       <c r="C314" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="315">
@@ -30327,7 +30324,7 @@
         <v>0.0</v>
       </c>
       <c r="C315" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="316">
@@ -30338,7 +30335,7 @@
         <v>0.0</v>
       </c>
       <c r="C316" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="317">
@@ -30349,7 +30346,7 @@
         <v>0.0</v>
       </c>
       <c r="C317" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="318">
@@ -30360,7 +30357,7 @@
         <v>0.0</v>
       </c>
       <c r="C318" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="319">
@@ -30371,7 +30368,7 @@
         <v>0.0</v>
       </c>
       <c r="C319" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="320">
@@ -30382,7 +30379,7 @@
         <v>0.0</v>
       </c>
       <c r="C320" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="321">
@@ -30393,7 +30390,7 @@
         <v>0.0</v>
       </c>
       <c r="C321" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="322">
@@ -30404,7 +30401,7 @@
         <v>0.0</v>
       </c>
       <c r="C322" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="323">
@@ -30415,7 +30412,7 @@
         <v>1.0</v>
       </c>
       <c r="C323" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="324">
@@ -30426,7 +30423,7 @@
         <v>0.0</v>
       </c>
       <c r="C324" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="325">
@@ -30437,7 +30434,7 @@
         <v>0.0</v>
       </c>
       <c r="C325" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="326">
@@ -30448,7 +30445,7 @@
         <v>0.0</v>
       </c>
       <c r="C326" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="327">
@@ -30459,7 +30456,7 @@
         <v>0.0</v>
       </c>
       <c r="C327" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="328">
@@ -30470,7 +30467,7 @@
         <v>0.0</v>
       </c>
       <c r="C328" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="329">
@@ -30481,7 +30478,7 @@
         <v>0.0</v>
       </c>
       <c r="C329" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="330">
@@ -30492,7 +30489,7 @@
         <v>0.0</v>
       </c>
       <c r="C330" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="331">
@@ -30503,7 +30500,7 @@
         <v>0.0</v>
       </c>
       <c r="C331" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="332">
@@ -30514,7 +30511,7 @@
         <v>0.0</v>
       </c>
       <c r="C332" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="333">
@@ -30525,7 +30522,7 @@
         <v>0.0</v>
       </c>
       <c r="C333" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="334">
@@ -30536,7 +30533,7 @@
         <v>0.0</v>
       </c>
       <c r="C334" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="335">
@@ -30547,7 +30544,7 @@
         <v>0.0</v>
       </c>
       <c r="C335" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="336">
@@ -30558,7 +30555,7 @@
         <v>0.0</v>
       </c>
       <c r="C336" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="337">
@@ -30569,7 +30566,7 @@
         <v>0.0</v>
       </c>
       <c r="C337" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="338">
@@ -30580,7 +30577,7 @@
         <v>0.0</v>
       </c>
       <c r="C338" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="339">
@@ -30591,7 +30588,7 @@
         <v>2.0</v>
       </c>
       <c r="C339" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="340">
@@ -30602,7 +30599,7 @@
         <v>2.0</v>
       </c>
       <c r="C340" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="341">
@@ -30613,7 +30610,7 @@
         <v>3.0</v>
       </c>
       <c r="C341" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="342">
@@ -30624,7 +30621,7 @@
         <v>3.0</v>
       </c>
       <c r="C342" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="343">
@@ -30635,7 +30632,7 @@
         <v>2.0</v>
       </c>
       <c r="C343" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="344">
@@ -30646,7 +30643,7 @@
         <v>1.0</v>
       </c>
       <c r="C344" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="345">
@@ -30657,7 +30654,7 @@
         <v>1.0</v>
       </c>
       <c r="C345" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="346">
@@ -30668,7 +30665,7 @@
         <v>1.0</v>
       </c>
       <c r="C346" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="347">
@@ -30679,7 +30676,7 @@
         <v>2.0</v>
       </c>
       <c r="C347" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="348">
@@ -30690,7 +30687,7 @@
         <v>1.0</v>
       </c>
       <c r="C348" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="349">
@@ -30701,7 +30698,7 @@
         <v>1.0</v>
       </c>
       <c r="C349" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="350">
@@ -30712,7 +30709,7 @@
         <v>1.0</v>
       </c>
       <c r="C350" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="351">
@@ -30723,7 +30720,7 @@
         <v>1.0</v>
       </c>
       <c r="C351" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="352">
@@ -30734,7 +30731,7 @@
         <v>1.0</v>
       </c>
       <c r="C352" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="353">
@@ -30745,7 +30742,7 @@
         <v>2.0</v>
       </c>
       <c r="C353" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="354">
@@ -30756,7 +30753,7 @@
         <v>2.0</v>
       </c>
       <c r="C354" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="355">
@@ -30767,7 +30764,7 @@
         <v>2.0</v>
       </c>
       <c r="C355" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="356">
@@ -30778,7 +30775,7 @@
         <v>1.0</v>
       </c>
       <c r="C356" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="357">
@@ -30789,7 +30786,7 @@
         <v>1.0</v>
       </c>
       <c r="C357" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="358">
@@ -30800,7 +30797,7 @@
         <v>1.0</v>
       </c>
       <c r="C358" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="359">
@@ -30811,7 +30808,7 @@
         <v>2.0</v>
       </c>
       <c r="C359" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="360">
@@ -30822,7 +30819,7 @@
         <v>1.0</v>
       </c>
       <c r="C360" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="361">
@@ -30833,7 +30830,7 @@
         <v>2.0</v>
       </c>
       <c r="C361" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="362">
@@ -30844,7 +30841,7 @@
         <v>2.0</v>
       </c>
       <c r="C362" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="363">
@@ -30855,7 +30852,7 @@
         <v>2.0</v>
       </c>
       <c r="C363" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="364">
@@ -30866,7 +30863,7 @@
         <v>0.0</v>
       </c>
       <c r="C364" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="365">
@@ -30877,7 +30874,7 @@
         <v>1.0</v>
       </c>
       <c r="C365" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="366">
@@ -30888,7 +30885,7 @@
         <v>0.0</v>
       </c>
       <c r="C366" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="367">
@@ -30899,7 +30896,7 @@
         <v>0.0</v>
       </c>
       <c r="C367" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="368">
@@ -30910,7 +30907,7 @@
         <v>0.0</v>
       </c>
       <c r="C368" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="369">
@@ -30921,7 +30918,7 @@
         <v>0.0</v>
       </c>
       <c r="C369" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="370">
@@ -30932,7 +30929,7 @@
         <v>0.0</v>
       </c>
       <c r="C370" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="371">
@@ -30943,7 +30940,7 @@
         <v>0.0</v>
       </c>
       <c r="C371" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="372">
@@ -30954,7 +30951,7 @@
         <v>1.0</v>
       </c>
       <c r="C372" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="373">
@@ -30965,7 +30962,7 @@
         <v>1.0</v>
       </c>
       <c r="C373" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="374">
@@ -30976,7 +30973,7 @@
         <v>0.0</v>
       </c>
       <c r="C374" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="375">
@@ -30987,7 +30984,7 @@
         <v>0.0</v>
       </c>
       <c r="C375" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="376">
@@ -30998,7 +30995,7 @@
         <v>0.0</v>
       </c>
       <c r="C376" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="377">
@@ -31009,7 +31006,7 @@
         <v>0.0</v>
       </c>
       <c r="C377" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="378">
@@ -31020,7 +31017,7 @@
         <v>0.0</v>
       </c>
       <c r="C378" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="379">
@@ -31031,7 +31028,7 @@
         <v>0.0</v>
       </c>
       <c r="C379" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="380">
@@ -31042,7 +31039,7 @@
         <v>0.0</v>
       </c>
       <c r="C380" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="381">
@@ -31053,7 +31050,7 @@
         <v>0.0</v>
       </c>
       <c r="C381" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="382">
@@ -31064,7 +31061,7 @@
         <v>0.0</v>
       </c>
       <c r="C382" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="383">
@@ -31075,7 +31072,7 @@
         <v>0.0</v>
       </c>
       <c r="C383" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="384">
@@ -31086,7 +31083,7 @@
         <v>0.0</v>
       </c>
       <c r="C384" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="385">
@@ -31097,7 +31094,7 @@
         <v>0.0</v>
       </c>
       <c r="C385" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="386">
@@ -31108,7 +31105,7 @@
         <v>1.0</v>
       </c>
       <c r="C386" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="387">
@@ -31119,7 +31116,7 @@
         <v>0.0</v>
       </c>
       <c r="C387" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="388">
@@ -31130,7 +31127,7 @@
         <v>0.0</v>
       </c>
       <c r="C388" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="389">
@@ -31141,7 +31138,7 @@
         <v>0.0</v>
       </c>
       <c r="C389" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="390">
@@ -31152,7 +31149,7 @@
         <v>0.0</v>
       </c>
       <c r="C390" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="391">
@@ -31163,7 +31160,7 @@
         <v>0.0</v>
       </c>
       <c r="C391" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="392">
@@ -31174,7 +31171,7 @@
         <v>0.0</v>
       </c>
       <c r="C392" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="393">
@@ -31185,7 +31182,7 @@
         <v>0.0</v>
       </c>
       <c r="C393" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="394">
@@ -31196,7 +31193,7 @@
         <v>0.0</v>
       </c>
       <c r="C394" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="395">
@@ -31207,7 +31204,7 @@
         <v>0.0</v>
       </c>
       <c r="C395" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="396">
@@ -31218,7 +31215,7 @@
         <v>0.0</v>
       </c>
       <c r="C396" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="397">
@@ -31229,7 +31226,7 @@
         <v>4.0</v>
       </c>
       <c r="C397" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="398">
@@ -31240,7 +31237,7 @@
         <v>3.0</v>
       </c>
       <c r="C398" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="399">
@@ -31251,7 +31248,7 @@
         <v>4.0</v>
       </c>
       <c r="C399" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="400">
@@ -31262,7 +31259,7 @@
         <v>4.0</v>
       </c>
       <c r="C400" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="401">
@@ -31273,7 +31270,7 @@
         <v>4.0</v>
       </c>
       <c r="C401" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="402">
@@ -31284,7 +31281,7 @@
         <v>2.0</v>
       </c>
       <c r="C402" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="403">
@@ -31295,7 +31292,7 @@
         <v>4.0</v>
       </c>
       <c r="C403" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="404">
@@ -31306,7 +31303,7 @@
         <v>4.0</v>
       </c>
       <c r="C404" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="405">
@@ -31317,7 +31314,7 @@
         <v>4.0</v>
       </c>
       <c r="C405" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="406">
@@ -31328,7 +31325,7 @@
         <v>4.0</v>
       </c>
       <c r="C406" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="407">
@@ -31339,7 +31336,7 @@
         <v>3.0</v>
       </c>
       <c r="C407" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="408">
@@ -31350,7 +31347,7 @@
         <v>3.0</v>
       </c>
       <c r="C408" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="409">
@@ -31361,7 +31358,7 @@
         <v>4.0</v>
       </c>
       <c r="C409" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="410">
@@ -31372,7 +31369,7 @@
         <v>4.0</v>
       </c>
       <c r="C410" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="411">
@@ -31383,7 +31380,7 @@
         <v>4.0</v>
       </c>
       <c r="C411" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="412">
@@ -31394,7 +31391,7 @@
         <v>4.0</v>
       </c>
       <c r="C412" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="413">
@@ -31405,7 +31402,7 @@
         <v>4.0</v>
       </c>
       <c r="C413" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="414">
@@ -31416,7 +31413,7 @@
         <v>4.0</v>
       </c>
       <c r="C414" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="415">
@@ -31427,7 +31424,7 @@
         <v>0.0</v>
       </c>
       <c r="C415" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="416">
@@ -31438,7 +31435,7 @@
         <v>0.0</v>
       </c>
       <c r="C416" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="417">
@@ -31449,7 +31446,7 @@
         <v>0.0</v>
       </c>
       <c r="C417" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="418">
@@ -31460,7 +31457,7 @@
         <v>0.0</v>
       </c>
       <c r="C418" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="419">
@@ -31471,7 +31468,7 @@
         <v>0.0</v>
       </c>
       <c r="C419" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="420">
@@ -31482,7 +31479,7 @@
         <v>0.0</v>
       </c>
       <c r="C420" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="421">
@@ -31493,7 +31490,7 @@
         <v>0.0</v>
       </c>
       <c r="C421" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="422">
@@ -31504,7 +31501,7 @@
         <v>0.0</v>
       </c>
       <c r="C422" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="423">
@@ -31515,7 +31512,7 @@
         <v>0.0</v>
       </c>
       <c r="C423" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="424">
@@ -31526,7 +31523,7 @@
         <v>0.0</v>
       </c>
       <c r="C424" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="425">
@@ -31537,7 +31534,7 @@
         <v>0.0</v>
       </c>
       <c r="C425" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="426">
@@ -31548,7 +31545,7 @@
         <v>0.0</v>
       </c>
       <c r="C426" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="427">
@@ -31559,7 +31556,7 @@
         <v>0.0</v>
       </c>
       <c r="C427" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="428">
@@ -31570,7 +31567,7 @@
         <v>0.0</v>
       </c>
       <c r="C428" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="429">
@@ -31581,7 +31578,7 @@
         <v>0.0</v>
       </c>
       <c r="C429" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="430">
@@ -31592,7 +31589,7 @@
         <v>0.0</v>
       </c>
       <c r="C430" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="431">
@@ -31603,7 +31600,7 @@
         <v>0.0</v>
       </c>
       <c r="C431" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="432">
@@ -31614,7 +31611,7 @@
         <v>0.0</v>
       </c>
       <c r="C432" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="433">
@@ -31625,7 +31622,7 @@
         <v>0.0</v>
       </c>
       <c r="C433" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="434">
@@ -31636,7 +31633,7 @@
         <v>0.0</v>
       </c>
       <c r="C434" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="435">
@@ -31647,7 +31644,7 @@
         <v>0.0</v>
       </c>
       <c r="C435" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="436">
@@ -31658,7 +31655,7 @@
         <v>0.0</v>
       </c>
       <c r="C436" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="437">
@@ -31669,7 +31666,7 @@
         <v>1.0</v>
       </c>
       <c r="C437" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="438">
@@ -31680,7 +31677,7 @@
         <v>1.0</v>
       </c>
       <c r="C438" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="439">
@@ -31691,7 +31688,7 @@
         <v>1.0</v>
       </c>
       <c r="C439" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="440">
@@ -31702,7 +31699,7 @@
         <v>1.0</v>
       </c>
       <c r="C440" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="441">
@@ -31713,7 +31710,7 @@
         <v>1.0</v>
       </c>
       <c r="C441" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="442">
@@ -31724,7 +31721,7 @@
         <v>1.0</v>
       </c>
       <c r="C442" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="443">
@@ -31735,7 +31732,7 @@
         <v>0.0</v>
       </c>
       <c r="C443" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="444">
@@ -31746,7 +31743,7 @@
         <v>0.0</v>
       </c>
       <c r="C444" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="445">
@@ -31757,7 +31754,7 @@
         <v>1.0</v>
       </c>
       <c r="C445" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="446">
@@ -31768,7 +31765,7 @@
         <v>0.0</v>
       </c>
       <c r="C446" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="447">
@@ -31779,7 +31776,7 @@
         <v>1.0</v>
       </c>
       <c r="C447" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="448">
@@ -31790,7 +31787,7 @@
         <v>1.0</v>
       </c>
       <c r="C448" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="449">
@@ -31801,7 +31798,7 @@
         <v>1.0</v>
       </c>
       <c r="C449" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="450">
@@ -31812,7 +31809,7 @@
         <v>1.0</v>
       </c>
       <c r="C450" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="451">
@@ -31823,7 +31820,7 @@
         <v>1.0</v>
       </c>
       <c r="C451" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="452">
@@ -31834,7 +31831,7 @@
         <v>1.0</v>
       </c>
       <c r="C452" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="453">
@@ -31845,7 +31842,7 @@
         <v>1.0</v>
       </c>
       <c r="C453" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="454">
@@ -31856,7 +31853,7 @@
         <v>1.0</v>
       </c>
       <c r="C454" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="455">
@@ -31867,7 +31864,7 @@
         <v>1.0</v>
       </c>
       <c r="C455" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="456">
@@ -31878,7 +31875,7 @@
         <v>1.0</v>
       </c>
       <c r="C456" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="457">
@@ -31889,7 +31886,7 @@
         <v>1.0</v>
       </c>
       <c r="C457" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="458">
@@ -31900,7 +31897,7 @@
         <v>1.0</v>
       </c>
       <c r="C458" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="459">
@@ -31911,7 +31908,7 @@
         <v>1.0</v>
       </c>
       <c r="C459" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="460">
@@ -31922,7 +31919,7 @@
         <v>1.0</v>
       </c>
       <c r="C460" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="461">
@@ -31933,7 +31930,7 @@
         <v>1.0</v>
       </c>
       <c r="C461" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="462">
@@ -31944,7 +31941,7 @@
         <v>1.0</v>
       </c>
       <c r="C462" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="463">
@@ -31955,7 +31952,7 @@
         <v>2.0</v>
       </c>
       <c r="C463" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="464">
@@ -31966,7 +31963,7 @@
         <v>2.0</v>
       </c>
       <c r="C464" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="465">
@@ -31977,7 +31974,7 @@
         <v>2.0</v>
       </c>
       <c r="C465" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="466">
@@ -31988,7 +31985,7 @@
         <v>3.0</v>
       </c>
       <c r="C466" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="467">
@@ -31999,7 +31996,7 @@
         <v>2.0</v>
       </c>
       <c r="C467" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="468">
@@ -32010,7 +32007,7 @@
         <v>2.0</v>
       </c>
       <c r="C468" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="469">
@@ -32021,7 +32018,7 @@
         <v>3.0</v>
       </c>
       <c r="C469" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="470">
@@ -32032,7 +32029,7 @@
         <v>2.0</v>
       </c>
       <c r="C470" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="471">
@@ -32043,7 +32040,7 @@
         <v>2.0</v>
       </c>
       <c r="C471" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="472">
@@ -32054,7 +32051,7 @@
         <v>2.0</v>
       </c>
       <c r="C472" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="473">
@@ -32065,7 +32062,7 @@
         <v>2.0</v>
       </c>
       <c r="C473" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="474">
@@ -32076,7 +32073,7 @@
         <v>2.0</v>
       </c>
       <c r="C474" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="475">
@@ -32087,7 +32084,7 @@
         <v>2.0</v>
       </c>
       <c r="C475" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="476">
@@ -32098,7 +32095,7 @@
         <v>2.0</v>
       </c>
       <c r="C476" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="477">
@@ -32109,7 +32106,7 @@
         <v>2.0</v>
       </c>
       <c r="C477" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="478">
@@ -32120,7 +32117,7 @@
         <v>2.0</v>
       </c>
       <c r="C478" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="479">
@@ -32131,7 +32128,7 @@
         <v>2.0</v>
       </c>
       <c r="C479" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="480">
@@ -32142,7 +32139,7 @@
         <v>2.0</v>
       </c>
       <c r="C480" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="481">
@@ -32153,7 +32150,7 @@
         <v>2.0</v>
       </c>
       <c r="C481" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="482">
@@ -32164,7 +32161,7 @@
         <v>2.0</v>
       </c>
       <c r="C482" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="483">
@@ -32175,7 +32172,7 @@
         <v>2.0</v>
       </c>
       <c r="C483" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="484">
@@ -32186,7 +32183,7 @@
         <v>2.0</v>
       </c>
       <c r="C484" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="485">
@@ -32197,7 +32194,7 @@
         <v>2.0</v>
       </c>
       <c r="C485" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="486">
@@ -32208,7 +32205,7 @@
         <v>2.0</v>
       </c>
       <c r="C486" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="487">
@@ -32219,7 +32216,7 @@
         <v>2.0</v>
       </c>
       <c r="C487" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="488">
@@ -32230,7 +32227,7 @@
         <v>2.0</v>
       </c>
       <c r="C488" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="489">
@@ -32241,7 +32238,7 @@
         <v>2.0</v>
       </c>
       <c r="C489" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="490">
@@ -32252,7 +32249,7 @@
         <v>2.0</v>
       </c>
       <c r="C490" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="491">
@@ -32263,7 +32260,7 @@
         <v>2.0</v>
       </c>
       <c r="C491" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="492">
@@ -32274,7 +32271,7 @@
         <v>2.0</v>
       </c>
       <c r="C492" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="493">
@@ -32285,7 +32282,7 @@
         <v>2.0</v>
       </c>
       <c r="C493" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="494">
@@ -32296,7 +32293,7 @@
         <v>2.0</v>
       </c>
       <c r="C494" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="495">
@@ -32307,7 +32304,7 @@
         <v>1.0</v>
       </c>
       <c r="C495" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="496">
@@ -32318,7 +32315,7 @@
         <v>1.0</v>
       </c>
       <c r="C496" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="497">
@@ -32329,7 +32326,7 @@
         <v>1.0</v>
       </c>
       <c r="C497" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="498">
@@ -32340,7 +32337,7 @@
         <v>1.0</v>
       </c>
       <c r="C498" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="499">
@@ -32351,7 +32348,7 @@
         <v>1.0</v>
       </c>
       <c r="C499" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="500">
@@ -32362,7 +32359,7 @@
         <v>1.0</v>
       </c>
       <c r="C500" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="501">
@@ -32373,7 +32370,7 @@
         <v>1.0</v>
       </c>
       <c r="C501" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="502">
@@ -32384,7 +32381,7 @@
         <v>1.0</v>
       </c>
       <c r="C502" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="503">
@@ -32395,7 +32392,7 @@
         <v>1.0</v>
       </c>
       <c r="C503" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="504">
@@ -32406,7 +32403,7 @@
         <v>1.0</v>
       </c>
       <c r="C504" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="505">
@@ -32417,7 +32414,7 @@
         <v>1.0</v>
       </c>
       <c r="C505" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="506">
@@ -32428,7 +32425,7 @@
         <v>2.0</v>
       </c>
       <c r="C506" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="507">
@@ -32439,7 +32436,7 @@
         <v>2.0</v>
       </c>
       <c r="C507" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="508">
@@ -32450,7 +32447,7 @@
         <v>1.0</v>
       </c>
       <c r="C508" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="509">
@@ -32461,7 +32458,7 @@
         <v>2.0</v>
       </c>
       <c r="C509" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="510">
@@ -32472,7 +32469,7 @@
         <v>1.0</v>
       </c>
       <c r="C510" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="511">
@@ -32483,7 +32480,7 @@
         <v>2.0</v>
       </c>
       <c r="C511" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="512">
@@ -32494,7 +32491,7 @@
         <v>1.0</v>
       </c>
       <c r="C512" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="513">
@@ -32505,7 +32502,7 @@
         <v>2.0</v>
       </c>
       <c r="C513" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="514">
@@ -32516,7 +32513,7 @@
         <v>1.0</v>
       </c>
       <c r="C514" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="515">
@@ -32527,7 +32524,7 @@
         <v>1.0</v>
       </c>
       <c r="C515" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="516">
@@ -32538,7 +32535,7 @@
         <v>1.0</v>
       </c>
       <c r="C516" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="517">
@@ -32549,7 +32546,7 @@
         <v>1.0</v>
       </c>
       <c r="C517" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="518">
@@ -32560,7 +32557,7 @@
         <v>2.0</v>
       </c>
       <c r="C518" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="519">
@@ -32571,7 +32568,7 @@
         <v>1.0</v>
       </c>
       <c r="C519" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="520">
@@ -32582,7 +32579,7 @@
         <v>1.0</v>
       </c>
       <c r="C520" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="521">
@@ -32593,7 +32590,7 @@
         <v>1.0</v>
       </c>
       <c r="C521" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="522">
@@ -32604,7 +32601,7 @@
         <v>1.0</v>
       </c>
       <c r="C522" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="523">
@@ -32615,7 +32612,7 @@
         <v>1.0</v>
       </c>
       <c r="C523" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="524">
@@ -32626,7 +32623,7 @@
         <v>1.0</v>
       </c>
       <c r="C524" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="525">
@@ -32637,7 +32634,7 @@
         <v>1.0</v>
       </c>
       <c r="C525" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="526">
@@ -32648,7 +32645,7 @@
         <v>1.0</v>
       </c>
       <c r="C526" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="527">
@@ -32659,7 +32656,7 @@
         <v>1.0</v>
       </c>
       <c r="C527" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="528">
@@ -32670,7 +32667,7 @@
         <v>1.0</v>
       </c>
       <c r="C528" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="529">
@@ -32681,7 +32678,7 @@
         <v>1.0</v>
       </c>
       <c r="C529" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>
